--- a/Rates.xlsx
+++ b/Rates.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="25440" windowHeight="12585"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Курсы" sheetId="1" r:id="rId1"/>
+    <sheet name="Отклонения" sheetId="3" r:id="rId2"/>
     <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -606,9 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:R1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2641,9 +2639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U36" sqref="U2:U36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2723,67 +2719,67 @@
         <v>30.257999999999999</v>
       </c>
       <c r="C2" s="9">
-        <f>Лист1!C2-Лист1!$B2</f>
+        <f>ABS(Курсы!C2-Курсы!$B2)</f>
         <v>0.74200000000000088</v>
       </c>
       <c r="D2" s="9">
-        <f>Лист1!D2-Лист1!$B2</f>
+        <f>ABS(Курсы!D2-Курсы!$B2)</f>
         <v>0.55300000000000082</v>
       </c>
       <c r="E2" s="9">
-        <f>Лист1!E2-Лист1!$B2</f>
+        <f>ABS(Курсы!E2-Курсы!$B2)</f>
         <v>0.55300000000000082</v>
       </c>
       <c r="F2" s="9">
-        <f>Лист1!F2-Лист1!$B2</f>
+        <f>ABS(Курсы!F2-Курсы!$B2)</f>
         <v>0.55300000000000082</v>
       </c>
       <c r="G2" s="9">
-        <f>Лист1!G2-Лист1!$B2</f>
+        <f>ABS(Курсы!G2-Курсы!$B2)</f>
         <v>0.57850000000000179</v>
       </c>
       <c r="H2" s="9">
-        <f>Лист1!H2-Лист1!$B2</f>
+        <f>ABS(Курсы!H2-Курсы!$B2)</f>
         <v>0.73600000000000065</v>
       </c>
       <c r="I2" s="9">
-        <f>Лист1!I2-Лист1!$B2</f>
+        <f>ABS(Курсы!I2-Курсы!$B2)</f>
         <v>0.56550000000000011</v>
       </c>
       <c r="J2" s="9">
-        <f>Лист1!J2-Лист1!$B2</f>
+        <f>ABS(Курсы!J2-Курсы!$B2)</f>
         <v>0.65269999999999939</v>
       </c>
       <c r="K2" s="9">
-        <f>Лист1!K2-Лист1!$B2</f>
+        <f>ABS(Курсы!K2-Курсы!$B2)</f>
         <v>0.70899999999999963</v>
       </c>
       <c r="L2" s="9">
-        <f>Лист1!L2-Лист1!$B2</f>
+        <f>ABS(Курсы!L2-Курсы!$B2)</f>
         <v>0.70899999999999963</v>
       </c>
       <c r="M2" s="9">
-        <f>Лист1!M2-Лист1!$B2</f>
+        <f>ABS(Курсы!M2-Курсы!$B2)</f>
         <v>0.70899999999999963</v>
       </c>
       <c r="N2" s="9">
-        <f>Лист1!N2-Лист1!$B2</f>
+        <f>ABS(Курсы!N2-Курсы!$B2)</f>
         <v>0.61060000000000159</v>
       </c>
       <c r="O2" s="9">
-        <f>Лист1!O2-Лист1!$B2</f>
+        <f>ABS(Курсы!O2-Курсы!$B2)</f>
         <v>0.49259999999999948</v>
       </c>
       <c r="P2" s="9">
-        <f>Лист1!P2-Лист1!$B2</f>
+        <f>ABS(Курсы!P2-Курсы!$B2)</f>
         <v>0.47409999999999997</v>
       </c>
       <c r="Q2" s="9">
-        <f>Лист1!Q2-Лист1!$B2</f>
+        <f>ABS(Курсы!Q2-Курсы!$B2)</f>
         <v>0.34540000000000148</v>
       </c>
       <c r="R2" s="9">
-        <f>Лист1!R2-Лист1!$B2</f>
+        <f>ABS(Курсы!R2-Курсы!$B2)</f>
         <v>0.43120000000000047</v>
       </c>
       <c r="U2" s="3">
@@ -2863,71 +2859,71 @@
         <v>30.161300000000001</v>
       </c>
       <c r="C3" s="9">
-        <f>Лист1!C3-Лист1!$B3</f>
+        <f>ABS(Курсы!C3-Курсы!$B3)</f>
         <v>0.53869999999999862</v>
       </c>
       <c r="D3" s="9">
-        <f>Лист1!D3-Лист1!$B3</f>
+        <f>ABS(Курсы!D3-Курсы!$B3)</f>
         <v>0.21139999999999759</v>
       </c>
       <c r="E3" s="9">
-        <f>Лист1!E3-Лист1!$B3</f>
+        <f>ABS(Курсы!E3-Курсы!$B3)</f>
         <v>0.21139999999999759</v>
       </c>
       <c r="F3" s="9">
-        <f>Лист1!F3-Лист1!$B3</f>
+        <f>ABS(Курсы!F3-Курсы!$B3)</f>
         <v>0.21139999999999759</v>
       </c>
       <c r="G3" s="9">
-        <f>Лист1!G3-Лист1!$B3</f>
+        <f>ABS(Курсы!G3-Курсы!$B3)</f>
         <v>0.21139999999999759</v>
       </c>
       <c r="H3" s="9">
-        <f>Лист1!H3-Лист1!$B3</f>
+        <f>ABS(Курсы!H3-Курсы!$B3)</f>
         <v>0.21139999999999759</v>
       </c>
       <c r="I3" s="9">
-        <f>Лист1!I3-Лист1!$B3</f>
+        <f>ABS(Курсы!I3-Курсы!$B3)</f>
         <v>0.21139999999999759</v>
       </c>
       <c r="J3" s="9">
-        <f>Лист1!J3-Лист1!$B3</f>
+        <f>ABS(Курсы!J3-Курсы!$B3)</f>
         <v>0.21139999999999759</v>
       </c>
       <c r="K3" s="9">
-        <f>Лист1!K3-Лист1!$B3</f>
+        <f>ABS(Курсы!K3-Курсы!$B3)</f>
         <v>0.21139999999999759</v>
       </c>
       <c r="L3" s="9">
-        <f>Лист1!L3-Лист1!$B3</f>
+        <f>ABS(Курсы!L3-Курсы!$B3)</f>
         <v>0.21139999999999759</v>
       </c>
       <c r="M3" s="9">
-        <f>Лист1!M3-Лист1!$B3</f>
+        <f>ABS(Курсы!M3-Курсы!$B3)</f>
         <v>0.2602000000000011</v>
       </c>
       <c r="N3" s="9">
-        <f>Лист1!N3-Лист1!$B3</f>
+        <f>ABS(Курсы!N3-Курсы!$B3)</f>
         <v>0.20369999999999777</v>
       </c>
       <c r="O3" s="9">
-        <f>Лист1!O3-Лист1!$B3</f>
+        <f>ABS(Курсы!O3-Курсы!$B3)</f>
         <v>9.2399999999997817E-2</v>
       </c>
       <c r="P3" s="9">
-        <f>Лист1!P3-Лист1!$B3</f>
+        <f>ABS(Курсы!P3-Курсы!$B3)</f>
         <v>9.2399999999997817E-2</v>
       </c>
       <c r="Q3" s="9">
-        <f>Лист1!Q3-Лист1!$B3</f>
+        <f>ABS(Курсы!Q3-Курсы!$B3)</f>
         <v>9.2399999999997817E-2</v>
       </c>
       <c r="R3" s="9">
-        <f>Лист1!R3-Лист1!$B3</f>
+        <f>ABS(Курсы!R3-Курсы!$B3)</f>
         <v>9.9399999999999267E-2</v>
       </c>
       <c r="U3" s="3">
-        <f t="shared" ref="U3:U37" si="2">C3^2</f>
+        <f t="shared" ref="U3:U36" si="2">C3^2</f>
         <v>0.29019768999999851</v>
       </c>
       <c r="V3" s="3">
@@ -3003,68 +2999,68 @@
         <v>30.7987</v>
       </c>
       <c r="C4" s="9">
-        <f>Лист1!C4-Лист1!$B4</f>
-        <v>-0.5987000000000009</v>
+        <f>ABS(Курсы!C4-Курсы!$B4)</f>
+        <v>0.5987000000000009</v>
       </c>
       <c r="D4" s="9">
-        <f>Лист1!D4-Лист1!$B4</f>
-        <v>-0.78259999999999863</v>
+        <f>ABS(Курсы!D4-Курсы!$B4)</f>
+        <v>0.78259999999999863</v>
       </c>
       <c r="E4" s="9">
-        <f>Лист1!E4-Лист1!$B4</f>
-        <v>-0.80209999999999937</v>
+        <f>ABS(Курсы!E4-Курсы!$B4)</f>
+        <v>0.80209999999999937</v>
       </c>
       <c r="F4" s="9">
-        <f>Лист1!F4-Лист1!$B4</f>
-        <v>-0.80209999999999937</v>
+        <f>ABS(Курсы!F4-Курсы!$B4)</f>
+        <v>0.80209999999999937</v>
       </c>
       <c r="G4" s="9">
-        <f>Лист1!G4-Лист1!$B4</f>
-        <v>-0.80209999999999937</v>
+        <f>ABS(Курсы!G4-Курсы!$B4)</f>
+        <v>0.80209999999999937</v>
       </c>
       <c r="H4" s="9">
-        <f>Лист1!H4-Лист1!$B4</f>
-        <v>-0.87359999999999971</v>
+        <f>ABS(Курсы!H4-Курсы!$B4)</f>
+        <v>0.87359999999999971</v>
       </c>
       <c r="I4" s="9">
-        <f>Лист1!I4-Лист1!$B4</f>
-        <v>-0.67559999999999931</v>
+        <f>ABS(Курсы!I4-Курсы!$B4)</f>
+        <v>0.67559999999999931</v>
       </c>
       <c r="J4" s="9">
-        <f>Лист1!J4-Лист1!$B4</f>
-        <v>-0.83889999999999887</v>
+        <f>ABS(Курсы!J4-Курсы!$B4)</f>
+        <v>0.83889999999999887</v>
       </c>
       <c r="K4" s="9">
-        <f>Лист1!K4-Лист1!$B4</f>
-        <v>-0.74909999999999854</v>
+        <f>ABS(Курсы!K4-Курсы!$B4)</f>
+        <v>0.74909999999999854</v>
       </c>
       <c r="L4" s="9">
-        <f>Лист1!L4-Лист1!$B4</f>
-        <v>-0.64120000000000132</v>
+        <f>ABS(Курсы!L4-Курсы!$B4)</f>
+        <v>0.64120000000000132</v>
       </c>
       <c r="M4" s="9">
-        <f>Лист1!M4-Лист1!$B4</f>
-        <v>-0.64120000000000132</v>
+        <f>ABS(Курсы!M4-Курсы!$B4)</f>
+        <v>0.64120000000000132</v>
       </c>
       <c r="N4" s="9">
-        <f>Лист1!N4-Лист1!$B4</f>
-        <v>-0.64120000000000132</v>
+        <f>ABS(Курсы!N4-Курсы!$B4)</f>
+        <v>0.64120000000000132</v>
       </c>
       <c r="O4" s="9">
-        <f>Лист1!O4-Лист1!$B4</f>
-        <v>-0.63970000000000127</v>
+        <f>ABS(Курсы!O4-Курсы!$B4)</f>
+        <v>0.63970000000000127</v>
       </c>
       <c r="P4" s="9">
-        <f>Лист1!P4-Лист1!$B4</f>
-        <v>-0.62740000000000151</v>
+        <f>ABS(Курсы!P4-Курсы!$B4)</f>
+        <v>0.62740000000000151</v>
       </c>
       <c r="Q4" s="9">
-        <f>Лист1!Q4-Лист1!$B4</f>
-        <v>-0.72950000000000159</v>
+        <f>ABS(Курсы!Q4-Курсы!$B4)</f>
+        <v>0.72950000000000159</v>
       </c>
       <c r="R4" s="9">
-        <f>Лист1!R4-Лист1!$B4</f>
-        <v>-0.72139999999999915</v>
+        <f>ABS(Курсы!R4-Курсы!$B4)</f>
+        <v>0.72139999999999915</v>
       </c>
       <c r="U4" s="3">
         <f t="shared" si="2"/>
@@ -3143,68 +3139,68 @@
         <v>31.33</v>
       </c>
       <c r="C5" s="9">
-        <f>Лист1!C5-Лист1!$B5</f>
-        <v>-1.3299999999999983</v>
+        <f>ABS(Курсы!C5-Курсы!$B5)</f>
+        <v>1.3299999999999983</v>
       </c>
       <c r="D5" s="9">
-        <f>Лист1!D5-Лист1!$B5</f>
-        <v>-0.81759999999999877</v>
+        <f>ABS(Курсы!D5-Курсы!$B5)</f>
+        <v>0.81759999999999877</v>
       </c>
       <c r="E5" s="9">
-        <f>Лист1!E5-Лист1!$B5</f>
-        <v>-0.69189999999999685</v>
+        <f>ABS(Курсы!E5-Курсы!$B5)</f>
+        <v>0.69189999999999685</v>
       </c>
       <c r="F5" s="9">
-        <f>Лист1!F5-Лист1!$B5</f>
-        <v>-0.69189999999999685</v>
+        <f>ABS(Курсы!F5-Курсы!$B5)</f>
+        <v>0.69189999999999685</v>
       </c>
       <c r="G5" s="9">
-        <f>Лист1!G5-Лист1!$B5</f>
-        <v>-0.69189999999999685</v>
+        <f>ABS(Курсы!G5-Курсы!$B5)</f>
+        <v>0.69189999999999685</v>
       </c>
       <c r="H5" s="9">
-        <f>Лист1!H5-Лист1!$B5</f>
-        <v>-0.54299999999999926</v>
+        <f>ABS(Курсы!H5-Курсы!$B5)</f>
+        <v>0.54299999999999926</v>
       </c>
       <c r="I5" s="9">
-        <f>Лист1!I5-Лист1!$B5</f>
-        <v>-0.63369999999999749</v>
+        <f>ABS(Курсы!I5-Курсы!$B5)</f>
+        <v>0.63369999999999749</v>
       </c>
       <c r="J5" s="9">
-        <f>Лист1!J5-Лист1!$B5</f>
-        <v>-0.70859999999999701</v>
+        <f>ABS(Курсы!J5-Курсы!$B5)</f>
+        <v>0.70859999999999701</v>
       </c>
       <c r="K5" s="9">
-        <f>Лист1!K5-Лист1!$B5</f>
-        <v>-0.5671999999999997</v>
+        <f>ABS(Курсы!K5-Курсы!$B5)</f>
+        <v>0.5671999999999997</v>
       </c>
       <c r="L5" s="9">
-        <f>Лист1!L5-Лист1!$B5</f>
-        <v>-0.5671999999999997</v>
+        <f>ABS(Курсы!L5-Курсы!$B5)</f>
+        <v>0.5671999999999997</v>
       </c>
       <c r="M5" s="9">
-        <f>Лист1!M5-Лист1!$B5</f>
-        <v>-0.5671999999999997</v>
+        <f>ABS(Курсы!M5-Курсы!$B5)</f>
+        <v>0.5671999999999997</v>
       </c>
       <c r="N5" s="9">
-        <f>Лист1!N5-Лист1!$B5</f>
-        <v>-0.5671999999999997</v>
+        <f>ABS(Курсы!N5-Курсы!$B5)</f>
+        <v>0.5671999999999997</v>
       </c>
       <c r="O5" s="9">
-        <f>Лист1!O5-Лист1!$B5</f>
-        <v>-0.57239999999999824</v>
+        <f>ABS(Курсы!O5-Курсы!$B5)</f>
+        <v>0.57239999999999824</v>
       </c>
       <c r="P5" s="9">
-        <f>Лист1!P5-Лист1!$B5</f>
-        <v>-0.58009999999999806</v>
+        <f>ABS(Курсы!P5-Курсы!$B5)</f>
+        <v>0.58009999999999806</v>
       </c>
       <c r="Q5" s="9">
-        <f>Лист1!Q5-Лист1!$B5</f>
-        <v>-0.60909999999999798</v>
+        <f>ABS(Курсы!Q5-Курсы!$B5)</f>
+        <v>0.60909999999999798</v>
       </c>
       <c r="R5" s="9">
-        <f>Лист1!R5-Лист1!$B5</f>
-        <v>-0.55309999999999704</v>
+        <f>ABS(Курсы!R5-Курсы!$B5)</f>
+        <v>0.55309999999999704</v>
       </c>
       <c r="U5" s="3">
         <f t="shared" si="2"/>
@@ -3283,68 +3279,68 @@
         <v>31.241099999999999</v>
       </c>
       <c r="C6" s="9">
-        <f>Лист1!C6-Лист1!$B6</f>
-        <v>-0.24109999999999943</v>
+        <f>ABS(Курсы!C6-Курсы!$B6)</f>
+        <v>0.24109999999999943</v>
       </c>
       <c r="D6" s="9">
-        <f>Лист1!D6-Лист1!$B6</f>
-        <v>-0.1576999999999984</v>
+        <f>ABS(Курсы!D6-Курсы!$B6)</f>
+        <v>0.1576999999999984</v>
       </c>
       <c r="E6" s="9">
-        <f>Лист1!E6-Лист1!$B6</f>
-        <v>-0.13179999999999836</v>
+        <f>ABS(Курсы!E6-Курсы!$B6)</f>
+        <v>0.13179999999999836</v>
       </c>
       <c r="F6" s="9">
-        <f>Лист1!F6-Лист1!$B6</f>
-        <v>-0.12330000000000041</v>
+        <f>ABS(Курсы!F6-Курсы!$B6)</f>
+        <v>0.12330000000000041</v>
       </c>
       <c r="G6" s="9">
-        <f>Лист1!G6-Лист1!$B6</f>
+        <f>ABS(Курсы!G6-Курсы!$B6)</f>
         <v>0.1507000000000005</v>
       </c>
       <c r="H6" s="9">
-        <f>Лист1!H6-Лист1!$B6</f>
+        <f>ABS(Курсы!H6-Курсы!$B6)</f>
         <v>0.47920000000000229</v>
       </c>
       <c r="I6" s="9">
-        <f>Лист1!I6-Лист1!$B6</f>
+        <f>ABS(Курсы!I6-Курсы!$B6)</f>
         <v>0.37959999999999994</v>
       </c>
       <c r="J6" s="9">
-        <f>Лист1!J6-Лист1!$B6</f>
+        <f>ABS(Курсы!J6-Курсы!$B6)</f>
         <v>0.37959999999999994</v>
       </c>
       <c r="K6" s="9">
-        <f>Лист1!K6-Лист1!$B6</f>
+        <f>ABS(Курсы!K6-Курсы!$B6)</f>
         <v>0.37959999999999994</v>
       </c>
       <c r="L6" s="9">
-        <f>Лист1!L6-Лист1!$B6</f>
+        <f>ABS(Курсы!L6-Курсы!$B6)</f>
         <v>0.37330000000000041</v>
       </c>
       <c r="M6" s="9">
-        <f>Лист1!M6-Лист1!$B6</f>
-        <v>-3.2499999999998863E-2</v>
+        <f>ABS(Курсы!M6-Курсы!$B6)</f>
+        <v>3.2499999999998863E-2</v>
       </c>
       <c r="N6" s="9">
-        <f>Лист1!N6-Лист1!$B6</f>
-        <v>-0.23750000000000071</v>
+        <f>ABS(Курсы!N6-Курсы!$B6)</f>
+        <v>0.23750000000000071</v>
       </c>
       <c r="O6" s="9">
-        <f>Лист1!O6-Лист1!$B6</f>
-        <v>-0.35970000000000013</v>
+        <f>ABS(Курсы!O6-Курсы!$B6)</f>
+        <v>0.35970000000000013</v>
       </c>
       <c r="P6" s="9">
-        <f>Лист1!P6-Лист1!$B6</f>
-        <v>-0.31029999999999802</v>
+        <f>ABS(Курсы!P6-Курсы!$B6)</f>
+        <v>0.31029999999999802</v>
       </c>
       <c r="Q6" s="9">
-        <f>Лист1!Q6-Лист1!$B6</f>
-        <v>-0.31029999999999802</v>
+        <f>ABS(Курсы!Q6-Курсы!$B6)</f>
+        <v>0.31029999999999802</v>
       </c>
       <c r="R6" s="9">
-        <f>Лист1!R6-Лист1!$B6</f>
-        <v>-0.31029999999999802</v>
+        <f>ABS(Курсы!R6-Курсы!$B6)</f>
+        <v>0.31029999999999802</v>
       </c>
       <c r="U6" s="3">
         <f t="shared" si="2"/>
@@ -3423,68 +3419,68 @@
         <v>32.280299999999997</v>
       </c>
       <c r="C7" s="9">
-        <f>Лист1!C7-Лист1!$B7</f>
-        <v>-1.2802999999999969</v>
+        <f>ABS(Курсы!C7-Курсы!$B7)</f>
+        <v>1.2802999999999969</v>
       </c>
       <c r="D7" s="9">
-        <f>Лист1!D7-Лист1!$B7</f>
-        <v>-1.2369999999999983</v>
+        <f>ABS(Курсы!D7-Курсы!$B7)</f>
+        <v>1.2369999999999983</v>
       </c>
       <c r="E7" s="9">
-        <f>Лист1!E7-Лист1!$B7</f>
-        <v>-1.2369999999999983</v>
+        <f>ABS(Курсы!E7-Курсы!$B7)</f>
+        <v>1.2369999999999983</v>
       </c>
       <c r="F7" s="9">
-        <f>Лист1!F7-Лист1!$B7</f>
-        <v>-1.2369999999999983</v>
+        <f>ABS(Курсы!F7-Курсы!$B7)</f>
+        <v>1.2369999999999983</v>
       </c>
       <c r="G7" s="9">
-        <f>Лист1!G7-Лист1!$B7</f>
-        <v>-1.2369999999999983</v>
+        <f>ABS(Курсы!G7-Курсы!$B7)</f>
+        <v>1.2369999999999983</v>
       </c>
       <c r="H7" s="9">
-        <f>Лист1!H7-Лист1!$B7</f>
-        <v>-1.2369999999999983</v>
+        <f>ABS(Курсы!H7-Курсы!$B7)</f>
+        <v>1.2369999999999983</v>
       </c>
       <c r="I7" s="9">
-        <f>Лист1!I7-Лист1!$B7</f>
-        <v>-1.2369999999999983</v>
+        <f>ABS(Курсы!I7-Курсы!$B7)</f>
+        <v>1.2369999999999983</v>
       </c>
       <c r="J7" s="9">
-        <f>Лист1!J7-Лист1!$B7</f>
-        <v>-1.196399999999997</v>
+        <f>ABS(Курсы!J7-Курсы!$B7)</f>
+        <v>1.196399999999997</v>
       </c>
       <c r="K7" s="9">
-        <f>Лист1!K7-Лист1!$B7</f>
-        <v>-1.201399999999996</v>
+        <f>ABS(Курсы!K7-Курсы!$B7)</f>
+        <v>1.201399999999996</v>
       </c>
       <c r="L7" s="9">
-        <f>Лист1!L7-Лист1!$B7</f>
-        <v>-1.1973999999999982</v>
+        <f>ABS(Курсы!L7-Курсы!$B7)</f>
+        <v>1.1973999999999982</v>
       </c>
       <c r="M7" s="9">
-        <f>Лист1!M7-Лист1!$B7</f>
-        <v>-1.1973999999999982</v>
+        <f>ABS(Курсы!M7-Курсы!$B7)</f>
+        <v>1.1973999999999982</v>
       </c>
       <c r="N7" s="9">
-        <f>Лист1!N7-Лист1!$B7</f>
-        <v>-1.1973999999999982</v>
+        <f>ABS(Курсы!N7-Курсы!$B7)</f>
+        <v>1.1973999999999982</v>
       </c>
       <c r="O7" s="9">
-        <f>Лист1!O7-Лист1!$B7</f>
-        <v>-1.1973999999999982</v>
+        <f>ABS(Курсы!O7-Курсы!$B7)</f>
+        <v>1.1973999999999982</v>
       </c>
       <c r="P7" s="9">
-        <f>Лист1!P7-Лист1!$B7</f>
-        <v>-1.1973999999999982</v>
+        <f>ABS(Курсы!P7-Курсы!$B7)</f>
+        <v>1.1973999999999982</v>
       </c>
       <c r="Q7" s="9">
-        <f>Лист1!Q7-Лист1!$B7</f>
-        <v>-0.90259999999999607</v>
+        <f>ABS(Курсы!Q7-Курсы!$B7)</f>
+        <v>0.90259999999999607</v>
       </c>
       <c r="R7" s="9">
-        <f>Лист1!R7-Лист1!$B7</f>
-        <v>-1.0024999999999977</v>
+        <f>ABS(Курсы!R7-Курсы!$B7)</f>
+        <v>1.0024999999999977</v>
       </c>
       <c r="U7" s="3">
         <f t="shared" si="2"/>
@@ -3563,68 +3559,68 @@
         <v>32.7378</v>
       </c>
       <c r="C8" s="9">
-        <f>Лист1!C8-Лист1!$B8</f>
-        <v>-1.3378000000000014</v>
+        <f>ABS(Курсы!C8-Курсы!$B8)</f>
+        <v>1.3378000000000014</v>
       </c>
       <c r="D8" s="9">
-        <f>Лист1!D8-Лист1!$B8</f>
-        <v>-0.93990000000000151</v>
+        <f>ABS(Курсы!D8-Курсы!$B8)</f>
+        <v>0.93990000000000151</v>
       </c>
       <c r="E8" s="9">
-        <f>Лист1!E8-Лист1!$B8</f>
-        <v>-0.93990000000000151</v>
+        <f>ABS(Курсы!E8-Курсы!$B8)</f>
+        <v>0.93990000000000151</v>
       </c>
       <c r="F8" s="9">
-        <f>Лист1!F8-Лист1!$B8</f>
-        <v>-0.93990000000000151</v>
+        <f>ABS(Курсы!F8-Курсы!$B8)</f>
+        <v>0.93990000000000151</v>
       </c>
       <c r="G8" s="9">
-        <f>Лист1!G8-Лист1!$B8</f>
-        <v>-0.68910000000000338</v>
+        <f>ABS(Курсы!G8-Курсы!$B8)</f>
+        <v>0.68910000000000338</v>
       </c>
       <c r="H8" s="9">
-        <f>Лист1!H8-Лист1!$B8</f>
-        <v>-0.90340000000000131</v>
+        <f>ABS(Курсы!H8-Курсы!$B8)</f>
+        <v>0.90340000000000131</v>
       </c>
       <c r="I8" s="9">
-        <f>Лист1!I8-Лист1!$B8</f>
-        <v>-0.75619999999999976</v>
+        <f>ABS(Курсы!I8-Курсы!$B8)</f>
+        <v>0.75619999999999976</v>
       </c>
       <c r="J8" s="9">
-        <f>Лист1!J8-Лист1!$B8</f>
-        <v>-0.5992999999999995</v>
+        <f>ABS(Курсы!J8-Курсы!$B8)</f>
+        <v>0.5992999999999995</v>
       </c>
       <c r="K8" s="9">
-        <f>Лист1!K8-Лист1!$B8</f>
-        <v>-0.49810000000000088</v>
+        <f>ABS(Курсы!K8-Курсы!$B8)</f>
+        <v>0.49810000000000088</v>
       </c>
       <c r="L8" s="9">
-        <f>Лист1!L8-Лист1!$B8</f>
-        <v>-0.49810000000000088</v>
+        <f>ABS(Курсы!L8-Курсы!$B8)</f>
+        <v>0.49810000000000088</v>
       </c>
       <c r="M8" s="9">
-        <f>Лист1!M8-Лист1!$B8</f>
-        <v>-0.49810000000000088</v>
+        <f>ABS(Курсы!M8-Курсы!$B8)</f>
+        <v>0.49810000000000088</v>
       </c>
       <c r="N8" s="9">
-        <f>Лист1!N8-Лист1!$B8</f>
-        <v>-0.41320000000000334</v>
+        <f>ABS(Курсы!N8-Курсы!$B8)</f>
+        <v>0.41320000000000334</v>
       </c>
       <c r="O8" s="9">
-        <f>Лист1!O8-Лист1!$B8</f>
-        <v>-0.34270000000000067</v>
+        <f>ABS(Курсы!O8-Курсы!$B8)</f>
+        <v>0.34270000000000067</v>
       </c>
       <c r="P8" s="9">
-        <f>Лист1!P8-Лист1!$B8</f>
-        <v>-0.34270000000000067</v>
+        <f>ABS(Курсы!P8-Курсы!$B8)</f>
+        <v>0.34270000000000067</v>
       </c>
       <c r="Q8" s="9">
-        <f>Лист1!Q8-Лист1!$B8</f>
-        <v>-0.39110000000000156</v>
+        <f>ABS(Курсы!Q8-Курсы!$B8)</f>
+        <v>0.39110000000000156</v>
       </c>
       <c r="R8" s="9">
-        <f>Лист1!R8-Лист1!$B8</f>
-        <v>-0.93489999999999895</v>
+        <f>ABS(Курсы!R8-Курсы!$B8)</f>
+        <v>0.93489999999999895</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" si="2"/>
@@ -3703,68 +3699,68 @@
         <v>33.015599999999999</v>
       </c>
       <c r="C9" s="9">
-        <f>Лист1!C9-Лист1!$B9</f>
-        <v>-1.559999999999917E-2</v>
+        <f>ABS(Курсы!C9-Курсы!$B9)</f>
+        <v>1.559999999999917E-2</v>
       </c>
       <c r="D9" s="9">
-        <f>Лист1!D9-Лист1!$B9</f>
-        <v>-0.30659999999999599</v>
+        <f>ABS(Курсы!D9-Курсы!$B9)</f>
+        <v>0.30659999999999599</v>
       </c>
       <c r="E9" s="9">
-        <f>Лист1!E9-Лист1!$B9</f>
-        <v>-0.16389999999999816</v>
+        <f>ABS(Курсы!E9-Курсы!$B9)</f>
+        <v>0.16389999999999816</v>
       </c>
       <c r="F9" s="9">
-        <f>Лист1!F9-Лист1!$B9</f>
-        <v>-6.810000000000116E-2</v>
+        <f>ABS(Курсы!F9-Курсы!$B9)</f>
+        <v>6.810000000000116E-2</v>
       </c>
       <c r="G9" s="9">
-        <f>Лист1!G9-Лист1!$B9</f>
+        <f>ABS(Курсы!G9-Курсы!$B9)</f>
         <v>0.20479999999999876</v>
       </c>
       <c r="H9" s="9">
-        <f>Лист1!H9-Лист1!$B9</f>
+        <f>ABS(Курсы!H9-Курсы!$B9)</f>
         <v>0.14489999999999981</v>
       </c>
       <c r="I9" s="9">
-        <f>Лист1!I9-Лист1!$B9</f>
+        <f>ABS(Курсы!I9-Курсы!$B9)</f>
         <v>0.2090999999999994</v>
       </c>
       <c r="J9" s="9">
-        <f>Лист1!J9-Лист1!$B9</f>
+        <f>ABS(Курсы!J9-Курсы!$B9)</f>
         <v>0.2090999999999994</v>
       </c>
       <c r="K9" s="9">
-        <f>Лист1!K9-Лист1!$B9</f>
+        <f>ABS(Курсы!K9-Курсы!$B9)</f>
         <v>0.2090999999999994</v>
       </c>
       <c r="L9" s="9">
-        <f>Лист1!L9-Лист1!$B9</f>
+        <f>ABS(Курсы!L9-Курсы!$B9)</f>
         <v>0.30539999999999878</v>
       </c>
       <c r="M9" s="9">
-        <f>Лист1!M9-Лист1!$B9</f>
+        <f>ABS(Курсы!M9-Курсы!$B9)</f>
         <v>6.8600000000003547E-2</v>
       </c>
       <c r="N9" s="9">
-        <f>Лист1!N9-Лист1!$B9</f>
-        <v>-0.10439999999999827</v>
+        <f>ABS(Курсы!N9-Курсы!$B9)</f>
+        <v>0.10439999999999827</v>
       </c>
       <c r="O9" s="9">
-        <f>Лист1!O9-Лист1!$B9</f>
-        <v>-0.42889999999999873</v>
+        <f>ABS(Курсы!O9-Курсы!$B9)</f>
+        <v>0.42889999999999873</v>
       </c>
       <c r="P9" s="9">
-        <f>Лист1!P9-Лист1!$B9</f>
-        <v>-0.37270000000000181</v>
+        <f>ABS(Курсы!P9-Курсы!$B9)</f>
+        <v>0.37270000000000181</v>
       </c>
       <c r="Q9" s="9">
-        <f>Лист1!Q9-Лист1!$B9</f>
-        <v>-0.37270000000000181</v>
+        <f>ABS(Курсы!Q9-Курсы!$B9)</f>
+        <v>0.37270000000000181</v>
       </c>
       <c r="R9" s="9">
-        <f>Лист1!R9-Лист1!$B9</f>
-        <v>-0.37270000000000181</v>
+        <f>ABS(Курсы!R9-Курсы!$B9)</f>
+        <v>0.37270000000000181</v>
       </c>
       <c r="U9" s="3">
         <f t="shared" si="2"/>
@@ -3843,67 +3839,67 @@
         <v>32.634399999999999</v>
       </c>
       <c r="C10" s="9">
-        <f>Лист1!C10-Лист1!$B10</f>
+        <f>ABS(Курсы!C10-Курсы!$B10)</f>
         <v>0.36560000000000059</v>
       </c>
       <c r="D10" s="9">
-        <f>Лист1!D10-Лист1!$B10</f>
+        <f>ABS(Курсы!D10-Курсы!$B10)</f>
         <v>0.39860000000000184</v>
       </c>
       <c r="E10" s="9">
-        <f>Лист1!E10-Лист1!$B10</f>
+        <f>ABS(Курсы!E10-Курсы!$B10)</f>
         <v>0.33970000000000056</v>
       </c>
       <c r="F10" s="9">
-        <f>Лист1!F10-Лист1!$B10</f>
+        <f>ABS(Курсы!F10-Курсы!$B10)</f>
         <v>0.46340000000000003</v>
       </c>
       <c r="G10" s="9">
-        <f>Лист1!G10-Лист1!$B10</f>
+        <f>ABS(Курсы!G10-Курсы!$B10)</f>
         <v>0.46340000000000003</v>
       </c>
       <c r="H10" s="9">
-        <f>Лист1!H10-Лист1!$B10</f>
+        <f>ABS(Курсы!H10-Курсы!$B10)</f>
         <v>0.46340000000000003</v>
       </c>
       <c r="I10" s="9">
-        <f>Лист1!I10-Лист1!$B10</f>
+        <f>ABS(Курсы!I10-Курсы!$B10)</f>
         <v>0.24670000000000414</v>
       </c>
       <c r="J10" s="9">
-        <f>Лист1!J10-Лист1!$B10</f>
+        <f>ABS(Курсы!J10-Курсы!$B10)</f>
         <v>0.30460000000000065</v>
       </c>
       <c r="K10" s="9">
-        <f>Лист1!K10-Лист1!$B10</f>
+        <f>ABS(Курсы!K10-Курсы!$B10)</f>
         <v>0.35040000000000049</v>
       </c>
       <c r="L10" s="9">
-        <f>Лист1!L10-Лист1!$B10</f>
+        <f>ABS(Курсы!L10-Курсы!$B10)</f>
         <v>0.30570000000000164</v>
       </c>
       <c r="M10" s="9">
-        <f>Лист1!M10-Лист1!$B10</f>
+        <f>ABS(Курсы!M10-Курсы!$B10)</f>
         <v>0.22619999999999862</v>
       </c>
       <c r="N10" s="9">
-        <f>Лист1!N10-Лист1!$B10</f>
+        <f>ABS(Курсы!N10-Курсы!$B10)</f>
         <v>0.22619999999999862</v>
       </c>
       <c r="O10" s="9">
-        <f>Лист1!O10-Лист1!$B10</f>
+        <f>ABS(Курсы!O10-Курсы!$B10)</f>
         <v>0.22619999999999862</v>
       </c>
       <c r="P10" s="9">
-        <f>Лист1!P10-Лист1!$B10</f>
+        <f>ABS(Курсы!P10-Курсы!$B10)</f>
         <v>0.25659999999999883</v>
       </c>
       <c r="Q10" s="9">
-        <f>Лист1!Q10-Лист1!$B10</f>
+        <f>ABS(Курсы!Q10-Курсы!$B10)</f>
         <v>0.40820000000000078</v>
       </c>
       <c r="R10" s="9">
-        <f>Лист1!R10-Лист1!$B10</f>
+        <f>ABS(Курсы!R10-Курсы!$B10)</f>
         <v>0.52389999999999759</v>
       </c>
       <c r="U10" s="3">
@@ -3983,67 +3979,67 @@
         <v>32.063099999999999</v>
       </c>
       <c r="C11" s="9">
-        <f>Лист1!C11-Лист1!$B11</f>
+        <f>ABS(Курсы!C11-Курсы!$B11)</f>
         <v>0.9369000000000014</v>
       </c>
       <c r="D11" s="9">
-        <f>Лист1!D11-Лист1!$B11</f>
+        <f>ABS(Курсы!D11-Курсы!$B11)</f>
         <v>1.1843000000000004</v>
       </c>
       <c r="E11" s="9">
-        <f>Лист1!E11-Лист1!$B11</f>
+        <f>ABS(Курсы!E11-Курсы!$B11)</f>
         <v>1.1843000000000004</v>
       </c>
       <c r="F11" s="9">
-        <f>Лист1!F11-Лист1!$B11</f>
+        <f>ABS(Курсы!F11-Курсы!$B11)</f>
         <v>1.1891000000000034</v>
       </c>
       <c r="G11" s="9">
-        <f>Лист1!G11-Лист1!$B11</f>
+        <f>ABS(Курсы!G11-Курсы!$B11)</f>
         <v>1.306200000000004</v>
       </c>
       <c r="H11" s="9">
-        <f>Лист1!H11-Лист1!$B11</f>
+        <f>ABS(Курсы!H11-Курсы!$B11)</f>
         <v>1.4025000000000034</v>
       </c>
       <c r="I11" s="9">
-        <f>Лист1!I11-Лист1!$B11</f>
+        <f>ABS(Курсы!I11-Курсы!$B11)</f>
         <v>1.3269999999999982</v>
       </c>
       <c r="J11" s="9">
-        <f>Лист1!J11-Лист1!$B11</f>
+        <f>ABS(Курсы!J11-Курсы!$B11)</f>
         <v>1.3706999999999994</v>
       </c>
       <c r="K11" s="9">
-        <f>Лист1!K11-Лист1!$B11</f>
+        <f>ABS(Курсы!K11-Курсы!$B11)</f>
         <v>1.3706999999999994</v>
       </c>
       <c r="L11" s="9">
-        <f>Лист1!L11-Лист1!$B11</f>
+        <f>ABS(Курсы!L11-Курсы!$B11)</f>
         <v>1.3706999999999994</v>
       </c>
       <c r="M11" s="9">
-        <f>Лист1!M11-Лист1!$B11</f>
+        <f>ABS(Курсы!M11-Курсы!$B11)</f>
         <v>1.2612000000000023</v>
       </c>
       <c r="N11" s="9">
-        <f>Лист1!N11-Лист1!$B11</f>
+        <f>ABS(Курсы!N11-Курсы!$B11)</f>
         <v>0.99690000000000367</v>
       </c>
       <c r="O11" s="9">
-        <f>Лист1!O11-Лист1!$B11</f>
+        <f>ABS(Курсы!O11-Курсы!$B11)</f>
         <v>0.89979999999999905</v>
       </c>
       <c r="P11" s="9">
-        <f>Лист1!P11-Лист1!$B11</f>
+        <f>ABS(Курсы!P11-Курсы!$B11)</f>
         <v>0.60999999999999943</v>
       </c>
       <c r="Q11" s="9">
-        <f>Лист1!Q11-Лист1!$B11</f>
+        <f>ABS(Курсы!Q11-Курсы!$B11)</f>
         <v>0.67750000000000199</v>
       </c>
       <c r="R11" s="9">
-        <f>Лист1!R11-Лист1!$B11</f>
+        <f>ABS(Курсы!R11-Курсы!$B11)</f>
         <v>0.67750000000000199</v>
       </c>
       <c r="U11" s="3">
@@ -4123,68 +4119,68 @@
         <v>32.6462</v>
       </c>
       <c r="C12" s="9">
-        <f>Лист1!C12-Лист1!$B12</f>
+        <f>ABS(Курсы!C12-Курсы!$B12)</f>
         <v>0.35379999999999967</v>
       </c>
       <c r="D12" s="9">
-        <f>Лист1!D12-Лист1!$B12</f>
-        <v>-0.16230000000000189</v>
+        <f>ABS(Курсы!D12-Курсы!$B12)</f>
+        <v>0.16230000000000189</v>
       </c>
       <c r="E12" s="9">
-        <f>Лист1!E12-Лист1!$B12</f>
-        <v>-0.34969999999999857</v>
+        <f>ABS(Курсы!E12-Курсы!$B12)</f>
+        <v>0.34969999999999857</v>
       </c>
       <c r="F12" s="9">
-        <f>Лист1!F12-Лист1!$B12</f>
-        <v>-0.34830000000000183</v>
+        <f>ABS(Курсы!F12-Курсы!$B12)</f>
+        <v>0.34830000000000183</v>
       </c>
       <c r="G12" s="9">
-        <f>Лист1!G12-Лист1!$B12</f>
-        <v>-0.52120000000000033</v>
+        <f>ABS(Курсы!G12-Курсы!$B12)</f>
+        <v>0.52120000000000033</v>
       </c>
       <c r="H12" s="9">
-        <f>Лист1!H12-Лист1!$B12</f>
-        <v>-0.54570000000000363</v>
+        <f>ABS(Курсы!H12-Курсы!$B12)</f>
+        <v>0.54570000000000363</v>
       </c>
       <c r="I12" s="9">
-        <f>Лист1!I12-Лист1!$B12</f>
-        <v>-0.54570000000000363</v>
+        <f>ABS(Курсы!I12-Курсы!$B12)</f>
+        <v>0.54570000000000363</v>
       </c>
       <c r="J12" s="9">
-        <f>Лист1!J12-Лист1!$B12</f>
-        <v>-0.54570000000000363</v>
+        <f>ABS(Курсы!J12-Курсы!$B12)</f>
+        <v>0.54570000000000363</v>
       </c>
       <c r="K12" s="9">
-        <f>Лист1!K12-Лист1!$B12</f>
-        <v>-0.35309999999999775</v>
+        <f>ABS(Курсы!K12-Курсы!$B12)</f>
+        <v>0.35309999999999775</v>
       </c>
       <c r="L12" s="9">
-        <f>Лист1!L12-Лист1!$B12</f>
-        <v>-0.34779999999999944</v>
+        <f>ABS(Курсы!L12-Курсы!$B12)</f>
+        <v>0.34779999999999944</v>
       </c>
       <c r="M12" s="9">
-        <f>Лист1!M12-Лист1!$B12</f>
-        <v>-0.28430000000000177</v>
+        <f>ABS(Курсы!M12-Курсы!$B12)</f>
+        <v>0.28430000000000177</v>
       </c>
       <c r="N12" s="9">
-        <f>Лист1!N12-Лист1!$B12</f>
-        <v>-0.28979999999999961</v>
+        <f>ABS(Курсы!N12-Курсы!$B12)</f>
+        <v>0.28979999999999961</v>
       </c>
       <c r="O12" s="9">
-        <f>Лист1!O12-Лист1!$B12</f>
-        <v>-0.43290000000000362</v>
+        <f>ABS(Курсы!O12-Курсы!$B12)</f>
+        <v>0.43290000000000362</v>
       </c>
       <c r="P12" s="9">
-        <f>Лист1!P12-Лист1!$B12</f>
-        <v>-0.43290000000000362</v>
+        <f>ABS(Курсы!P12-Курсы!$B12)</f>
+        <v>0.43290000000000362</v>
       </c>
       <c r="Q12" s="9">
-        <f>Лист1!Q12-Лист1!$B12</f>
-        <v>-0.43290000000000362</v>
+        <f>ABS(Курсы!Q12-Курсы!$B12)</f>
+        <v>0.43290000000000362</v>
       </c>
       <c r="R12" s="9">
-        <f>Лист1!R12-Лист1!$B12</f>
-        <v>-0.37989999999999924</v>
+        <f>ABS(Курсы!R12-Курсы!$B12)</f>
+        <v>0.37989999999999924</v>
       </c>
       <c r="U12" s="3">
         <f t="shared" si="2"/>
@@ -4263,68 +4259,68 @@
         <v>32.894500000000001</v>
       </c>
       <c r="C13" s="9">
-        <f>Лист1!C13-Лист1!$B13</f>
-        <v>-0.39450000000000074</v>
+        <f>ABS(Курсы!C13-Курсы!$B13)</f>
+        <v>0.39450000000000074</v>
       </c>
       <c r="D13" s="9">
-        <f>Лист1!D13-Лист1!$B13</f>
-        <v>-0.81869999999999976</v>
+        <f>ABS(Курсы!D13-Курсы!$B13)</f>
+        <v>0.81869999999999976</v>
       </c>
       <c r="E13" s="9">
-        <f>Лист1!E13-Лист1!$B13</f>
-        <v>-0.71370000000000289</v>
+        <f>ABS(Курсы!E13-Курсы!$B13)</f>
+        <v>0.71370000000000289</v>
       </c>
       <c r="F13" s="9">
-        <f>Лист1!F13-Лист1!$B13</f>
-        <v>-0.71370000000000289</v>
+        <f>ABS(Курсы!F13-Курсы!$B13)</f>
+        <v>0.71370000000000289</v>
       </c>
       <c r="G13" s="9">
-        <f>Лист1!G13-Лист1!$B13</f>
-        <v>-0.71370000000000289</v>
+        <f>ABS(Курсы!G13-Курсы!$B13)</f>
+        <v>0.71370000000000289</v>
       </c>
       <c r="H13" s="9">
-        <f>Лист1!H13-Лист1!$B13</f>
-        <v>-0.71370000000000289</v>
+        <f>ABS(Курсы!H13-Курсы!$B13)</f>
+        <v>0.71370000000000289</v>
       </c>
       <c r="I13" s="9">
-        <f>Лист1!I13-Лист1!$B13</f>
-        <v>-0.54359999999999786</v>
+        <f>ABS(Курсы!I13-Курсы!$B13)</f>
+        <v>0.54359999999999786</v>
       </c>
       <c r="J13" s="9">
-        <f>Лист1!J13-Лист1!$B13</f>
-        <v>-0.44340000000000401</v>
+        <f>ABS(Курсы!J13-Курсы!$B13)</f>
+        <v>0.44340000000000401</v>
       </c>
       <c r="K13" s="9">
-        <f>Лист1!K13-Лист1!$B13</f>
-        <v>-0.51420000000000243</v>
+        <f>ABS(Курсы!K13-Курсы!$B13)</f>
+        <v>0.51420000000000243</v>
       </c>
       <c r="L13" s="9">
-        <f>Лист1!L13-Лист1!$B13</f>
-        <v>-0.34660000000000224</v>
+        <f>ABS(Курсы!L13-Курсы!$B13)</f>
+        <v>0.34660000000000224</v>
       </c>
       <c r="M13" s="9">
-        <f>Лист1!M13-Лист1!$B13</f>
-        <v>-0.34660000000000224</v>
+        <f>ABS(Курсы!M13-Курсы!$B13)</f>
+        <v>0.34660000000000224</v>
       </c>
       <c r="N13" s="9">
-        <f>Лист1!N13-Лист1!$B13</f>
-        <v>-0.34660000000000224</v>
+        <f>ABS(Курсы!N13-Курсы!$B13)</f>
+        <v>0.34660000000000224</v>
       </c>
       <c r="O13" s="9">
-        <f>Лист1!O13-Лист1!$B13</f>
-        <v>-0.23230000000000217</v>
+        <f>ABS(Курсы!O13-Курсы!$B13)</f>
+        <v>0.23230000000000217</v>
       </c>
       <c r="P13" s="9">
-        <f>Лист1!P13-Лист1!$B13</f>
-        <v>-8.6899999999999977E-2</v>
+        <f>ABS(Курсы!P13-Курсы!$B13)</f>
+        <v>8.6899999999999977E-2</v>
       </c>
       <c r="Q13" s="9">
-        <f>Лист1!Q13-Лист1!$B13</f>
-        <v>-7.6100000000003831E-2</v>
+        <f>ABS(Курсы!Q13-Курсы!$B13)</f>
+        <v>7.6100000000003831E-2</v>
       </c>
       <c r="R13" s="9">
-        <f>Лист1!R13-Лист1!$B13</f>
-        <v>-0.20710000000000406</v>
+        <f>ABS(Курсы!R13-Курсы!$B13)</f>
+        <v>0.20710000000000406</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" si="2"/>
@@ -4403,68 +4399,68 @@
         <v>33.464700000000001</v>
       </c>
       <c r="C14" s="9">
-        <f>Лист1!C14-Лист1!$B14</f>
-        <v>-0.46470000000000056</v>
+        <f>ABS(Курсы!C14-Курсы!$B14)</f>
+        <v>0.46470000000000056</v>
       </c>
       <c r="D14" s="9">
-        <f>Лист1!D14-Лист1!$B14</f>
-        <v>-0.27309999999999945</v>
+        <f>ABS(Курсы!D14-Курсы!$B14)</f>
+        <v>0.27309999999999945</v>
       </c>
       <c r="E14" s="9">
-        <f>Лист1!E14-Лист1!$B14</f>
-        <v>-0.27309999999999945</v>
+        <f>ABS(Курсы!E14-Курсы!$B14)</f>
+        <v>0.27309999999999945</v>
       </c>
       <c r="F14" s="9">
-        <f>Лист1!F14-Лист1!$B14</f>
-        <v>-0.31649999999999778</v>
+        <f>ABS(Курсы!F14-Курсы!$B14)</f>
+        <v>0.31649999999999778</v>
       </c>
       <c r="G14" s="9">
-        <f>Лист1!G14-Лист1!$B14</f>
-        <v>-0.21869999999999834</v>
+        <f>ABS(Курсы!G14-Курсы!$B14)</f>
+        <v>0.21869999999999834</v>
       </c>
       <c r="H14" s="9">
-        <f>Лист1!H14-Лист1!$B14</f>
-        <v>-0.2015000000000029</v>
+        <f>ABS(Курсы!H14-Курсы!$B14)</f>
+        <v>0.2015000000000029</v>
       </c>
       <c r="I14" s="9">
-        <f>Лист1!I14-Лист1!$B14</f>
-        <v>-0.35070000000000334</v>
+        <f>ABS(Курсы!I14-Курсы!$B14)</f>
+        <v>0.35070000000000334</v>
       </c>
       <c r="J14" s="9">
-        <f>Лист1!J14-Лист1!$B14</f>
-        <v>-0.51330000000000098</v>
+        <f>ABS(Курсы!J14-Курсы!$B14)</f>
+        <v>0.51330000000000098</v>
       </c>
       <c r="K14" s="9">
-        <f>Лист1!K14-Лист1!$B14</f>
-        <v>-0.51330000000000098</v>
+        <f>ABS(Курсы!K14-Курсы!$B14)</f>
+        <v>0.51330000000000098</v>
       </c>
       <c r="L14" s="9">
-        <f>Лист1!L14-Лист1!$B14</f>
-        <v>-0.51330000000000098</v>
+        <f>ABS(Курсы!L14-Курсы!$B14)</f>
+        <v>0.51330000000000098</v>
       </c>
       <c r="M14" s="9">
-        <f>Лист1!M14-Лист1!$B14</f>
-        <v>-0.68650000000000233</v>
+        <f>ABS(Курсы!M14-Курсы!$B14)</f>
+        <v>0.68650000000000233</v>
       </c>
       <c r="N14" s="9">
-        <f>Лист1!N14-Лист1!$B14</f>
-        <v>-0.6799000000000035</v>
+        <f>ABS(Курсы!N14-Курсы!$B14)</f>
+        <v>0.6799000000000035</v>
       </c>
       <c r="O14" s="9">
-        <f>Лист1!O14-Лист1!$B14</f>
-        <v>-0.73320000000000363</v>
+        <f>ABS(Курсы!O14-Курсы!$B14)</f>
+        <v>0.73320000000000363</v>
       </c>
       <c r="P14" s="9">
-        <f>Лист1!P14-Лист1!$B14</f>
-        <v>-0.71289999999999765</v>
+        <f>ABS(Курсы!P14-Курсы!$B14)</f>
+        <v>0.71289999999999765</v>
       </c>
       <c r="Q14" s="9">
-        <f>Лист1!Q14-Лист1!$B14</f>
-        <v>-0.59839999999999804</v>
+        <f>ABS(Курсы!Q14-Курсы!$B14)</f>
+        <v>0.59839999999999804</v>
       </c>
       <c r="R14" s="9">
-        <f>Лист1!R14-Лист1!$B14</f>
-        <v>-0.59839999999999804</v>
+        <f>ABS(Курсы!R14-Курсы!$B14)</f>
+        <v>0.59839999999999804</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="2"/>
@@ -4543,68 +4539,68 @@
         <v>35.225999999999999</v>
       </c>
       <c r="C15" s="9">
-        <f>Лист1!C15-Лист1!$B15</f>
-        <v>-2.2259999999999991</v>
+        <f>ABS(Курсы!C15-Курсы!$B15)</f>
+        <v>2.2259999999999991</v>
       </c>
       <c r="D15" s="9">
-        <f>Лист1!D15-Лист1!$B15</f>
-        <v>-2.5672999999999959</v>
+        <f>ABS(Курсы!D15-Курсы!$B15)</f>
+        <v>2.5672999999999959</v>
       </c>
       <c r="E15" s="9">
-        <f>Лист1!E15-Лист1!$B15</f>
-        <v>-2.5672999999999959</v>
+        <f>ABS(Курсы!E15-Курсы!$B15)</f>
+        <v>2.5672999999999959</v>
       </c>
       <c r="F15" s="9">
-        <f>Лист1!F15-Лист1!$B15</f>
-        <v>-2.5672999999999959</v>
+        <f>ABS(Курсы!F15-Курсы!$B15)</f>
+        <v>2.5672999999999959</v>
       </c>
       <c r="G15" s="9">
-        <f>Лист1!G15-Лист1!$B15</f>
-        <v>-2.5672999999999959</v>
+        <f>ABS(Курсы!G15-Курсы!$B15)</f>
+        <v>2.5672999999999959</v>
       </c>
       <c r="H15" s="9">
-        <f>Лист1!H15-Лист1!$B15</f>
-        <v>-2.5672999999999959</v>
+        <f>ABS(Курсы!H15-Курсы!$B15)</f>
+        <v>2.5672999999999959</v>
       </c>
       <c r="I15" s="9">
-        <f>Лист1!I15-Лист1!$B15</f>
-        <v>-2.5672999999999959</v>
+        <f>ABS(Курсы!I15-Курсы!$B15)</f>
+        <v>2.5672999999999959</v>
       </c>
       <c r="J15" s="9">
-        <f>Лист1!J15-Лист1!$B15</f>
-        <v>-2.5672999999999959</v>
+        <f>ABS(Курсы!J15-Курсы!$B15)</f>
+        <v>2.5672999999999959</v>
       </c>
       <c r="K15" s="9">
-        <f>Лист1!K15-Лист1!$B15</f>
-        <v>-2.5672999999999959</v>
+        <f>ABS(Курсы!K15-Курсы!$B15)</f>
+        <v>2.5672999999999959</v>
       </c>
       <c r="L15" s="9">
-        <f>Лист1!L15-Лист1!$B15</f>
-        <v>-2.5672999999999959</v>
+        <f>ABS(Курсы!L15-Курсы!$B15)</f>
+        <v>2.5672999999999959</v>
       </c>
       <c r="M15" s="9">
-        <f>Лист1!M15-Лист1!$B15</f>
-        <v>-2.0713000000000008</v>
+        <f>ABS(Курсы!M15-Курсы!$B15)</f>
+        <v>2.0713000000000008</v>
       </c>
       <c r="N15" s="9">
-        <f>Лист1!N15-Лист1!$B15</f>
-        <v>-2.0197999999999965</v>
+        <f>ABS(Курсы!N15-Курсы!$B15)</f>
+        <v>2.0197999999999965</v>
       </c>
       <c r="O15" s="9">
-        <f>Лист1!O15-Лист1!$B15</f>
-        <v>-2.0197999999999965</v>
+        <f>ABS(Курсы!O15-Курсы!$B15)</f>
+        <v>2.0197999999999965</v>
       </c>
       <c r="P15" s="9">
-        <f>Лист1!P15-Лист1!$B15</f>
-        <v>-2.0197999999999965</v>
+        <f>ABS(Курсы!P15-Курсы!$B15)</f>
+        <v>2.0197999999999965</v>
       </c>
       <c r="Q15" s="9">
-        <f>Лист1!Q15-Лист1!$B15</f>
-        <v>-2.1056000000000026</v>
+        <f>ABS(Курсы!Q15-Курсы!$B15)</f>
+        <v>2.1056000000000026</v>
       </c>
       <c r="R15" s="9">
-        <f>Лист1!R15-Лист1!$B15</f>
-        <v>-1.9874000000000009</v>
+        <f>ABS(Курсы!R15-Курсы!$B15)</f>
+        <v>1.9874000000000009</v>
       </c>
       <c r="U15" s="3">
         <f t="shared" si="2"/>
@@ -4643,31 +4639,31 @@
         <v>6.5910292899999794</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" ref="AD15:AD37" si="3">L15^2</f>
+        <f t="shared" ref="AD15:AD36" si="3">L15^2</f>
         <v>6.5910292899999794</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" ref="AE15:AE37" si="4">M15^2</f>
+        <f t="shared" ref="AE15:AE36" si="4">M15^2</f>
         <v>4.2902836900000034</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" ref="AF15:AF37" si="5">N15^2</f>
+        <f t="shared" ref="AF15:AF36" si="5">N15^2</f>
         <v>4.0795920399999854</v>
       </c>
       <c r="AG15" s="3">
-        <f t="shared" ref="AG15:AG37" si="6">O15^2</f>
+        <f t="shared" ref="AG15:AG36" si="6">O15^2</f>
         <v>4.0795920399999854</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" ref="AH15:AH37" si="7">P15^2</f>
+        <f t="shared" ref="AH15:AH36" si="7">P15^2</f>
         <v>4.0795920399999854</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" ref="AI15:AI37" si="8">Q15^2</f>
+        <f t="shared" ref="AI15:AI36" si="8">Q15^2</f>
         <v>4.4335513600000107</v>
       </c>
       <c r="AJ15" s="3">
-        <f t="shared" ref="AJ15:AJ37" si="9">R15^2</f>
+        <f t="shared" ref="AJ15:AJ36" si="9">R15^2</f>
         <v>3.9497587600000039</v>
       </c>
       <c r="AK15" s="3"/>
@@ -4683,103 +4679,103 @@
         <v>36.212400000000002</v>
       </c>
       <c r="C16" s="9">
-        <f>Лист1!C16-Лист1!$B16</f>
-        <v>-2.2124000000000024</v>
+        <f>ABS(Курсы!C16-Курсы!$B16)</f>
+        <v>2.2124000000000024</v>
       </c>
       <c r="D16" s="9">
-        <f>Лист1!D16-Лист1!$B16</f>
-        <v>-1.0324000000000026</v>
+        <f>ABS(Курсы!D16-Курсы!$B16)</f>
+        <v>1.0324000000000026</v>
       </c>
       <c r="E16" s="9">
-        <f>Лист1!E16-Лист1!$B16</f>
-        <v>-1.0324000000000026</v>
+        <f>ABS(Курсы!E16-Курсы!$B16)</f>
+        <v>1.0324000000000026</v>
       </c>
       <c r="F16" s="9">
-        <f>Лист1!F16-Лист1!$B16</f>
-        <v>-1.0324000000000026</v>
+        <f>ABS(Курсы!F16-Курсы!$B16)</f>
+        <v>1.0324000000000026</v>
       </c>
       <c r="G16" s="9">
-        <f>Лист1!G16-Лист1!$B16</f>
-        <v>-0.97770000000000579</v>
+        <f>ABS(Курсы!G16-Курсы!$B16)</f>
+        <v>0.97770000000000579</v>
       </c>
       <c r="H16" s="9">
-        <f>Лист1!H16-Лист1!$B16</f>
-        <v>-0.76219999999999999</v>
+        <f>ABS(Курсы!H16-Курсы!$B16)</f>
+        <v>0.76219999999999999</v>
       </c>
       <c r="I16" s="9">
-        <f>Лист1!I16-Лист1!$B16</f>
-        <v>-1.2531999999999996</v>
+        <f>ABS(Курсы!I16-Курсы!$B16)</f>
+        <v>1.2531999999999996</v>
       </c>
       <c r="J16" s="9">
-        <f>Лист1!J16-Лист1!$B16</f>
-        <v>-1.4836999999999989</v>
+        <f>ABS(Курсы!J16-Курсы!$B16)</f>
+        <v>1.4836999999999989</v>
       </c>
       <c r="K16" s="9">
-        <f>Лист1!K16-Лист1!$B16</f>
-        <v>-1.6080000000000041</v>
+        <f>ABS(Курсы!K16-Курсы!$B16)</f>
+        <v>1.6080000000000041</v>
       </c>
       <c r="L16" s="9">
-        <f>Лист1!L16-Лист1!$B16</f>
-        <v>-1.6080000000000041</v>
+        <f>ABS(Курсы!L16-Курсы!$B16)</f>
+        <v>1.6080000000000041</v>
       </c>
       <c r="M16" s="9">
-        <f>Лист1!M16-Лист1!$B16</f>
-        <v>-1.6080000000000041</v>
+        <f>ABS(Курсы!M16-Курсы!$B16)</f>
+        <v>1.6080000000000041</v>
       </c>
       <c r="N16" s="9">
-        <f>Лист1!N16-Лист1!$B16</f>
-        <v>-1.4488000000000056</v>
+        <f>ABS(Курсы!N16-Курсы!$B16)</f>
+        <v>1.4488000000000056</v>
       </c>
       <c r="O16" s="9">
-        <f>Лист1!O16-Лист1!$B16</f>
-        <v>-1.4160000000000039</v>
+        <f>ABS(Курсы!O16-Курсы!$B16)</f>
+        <v>1.4160000000000039</v>
       </c>
       <c r="P16" s="9">
-        <f>Лист1!P16-Лист1!$B16</f>
-        <v>-1.4528999999999996</v>
+        <f>ABS(Курсы!P16-Курсы!$B16)</f>
+        <v>1.4528999999999996</v>
       </c>
       <c r="Q16" s="9">
-        <f>Лист1!Q16-Лист1!$B16</f>
-        <v>-1.3513000000000019</v>
+        <f>ABS(Курсы!Q16-Курсы!$B16)</f>
+        <v>1.3513000000000019</v>
       </c>
       <c r="R16" s="9">
-        <f>Лист1!R16-Лист1!$B16</f>
-        <v>-0.95650000000000546</v>
+        <f>ABS(Курсы!R16-Курсы!$B16)</f>
+        <v>0.95650000000000546</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" si="2"/>
         <v>4.8947137600000108</v>
       </c>
       <c r="V16" s="3">
-        <f t="shared" ref="V16:V37" si="10">D16^2</f>
+        <f t="shared" ref="V16:V36" si="10">D16^2</f>
         <v>1.0658497600000054</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" ref="W16:W37" si="11">E16^2</f>
+        <f t="shared" ref="W16:W36" si="11">E16^2</f>
         <v>1.0658497600000054</v>
       </c>
       <c r="X16" s="3">
-        <f t="shared" ref="X16:X37" si="12">F16^2</f>
+        <f t="shared" ref="X16:X36" si="12">F16^2</f>
         <v>1.0658497600000054</v>
       </c>
       <c r="Y16" s="3">
-        <f t="shared" ref="Y16:Y37" si="13">G16^2</f>
+        <f t="shared" ref="Y16:Y36" si="13">G16^2</f>
         <v>0.95589729000001133</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" ref="Z16:Z37" si="14">H16^2</f>
+        <f t="shared" ref="Z16:Z36" si="14">H16^2</f>
         <v>0.58094884000000002</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" ref="AA16:AA37" si="15">I16^2</f>
+        <f t="shared" ref="AA16:AA36" si="15">I16^2</f>
         <v>1.5705102399999991</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" ref="AB16:AB37" si="16">J16^2</f>
+        <f t="shared" ref="AB16:AB36" si="16">J16^2</f>
         <v>2.2013656899999967</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" ref="AC16:AC37" si="17">K16^2</f>
+        <f t="shared" ref="AC16:AC36" si="17">K16^2</f>
         <v>2.5856640000000133</v>
       </c>
       <c r="AD16" s="3">
@@ -4823,67 +4819,67 @@
         <v>35.662500000000001</v>
       </c>
       <c r="C17" s="9">
-        <f>Лист1!C17-Лист1!$B17</f>
-        <v>-0.16250000000000142</v>
+        <f>ABS(Курсы!C17-Курсы!$B17)</f>
+        <v>0.16250000000000142</v>
       </c>
       <c r="D17" s="9">
-        <f>Лист1!D17-Лист1!$B17</f>
+        <f>ABS(Курсы!D17-Курсы!$B17)</f>
         <v>0.522199999999998</v>
       </c>
       <c r="E17" s="9">
-        <f>Лист1!E17-Лист1!$B17</f>
+        <f>ABS(Курсы!E17-Курсы!$B17)</f>
         <v>0.522199999999998</v>
       </c>
       <c r="F17" s="9">
-        <f>Лист1!F17-Лист1!$B17</f>
+        <f>ABS(Курсы!F17-Курсы!$B17)</f>
         <v>0.522199999999998</v>
       </c>
       <c r="G17" s="9">
-        <f>Лист1!G17-Лист1!$B17</f>
+        <f>ABS(Курсы!G17-Курсы!$B17)</f>
         <v>0.71589999999999776</v>
       </c>
       <c r="H17" s="9">
-        <f>Лист1!H17-Лист1!$B17</f>
+        <f>ABS(Курсы!H17-Курсы!$B17)</f>
         <v>0.658299999999997</v>
       </c>
       <c r="I17" s="9">
-        <f>Лист1!I17-Лист1!$B17</f>
+        <f>ABS(Курсы!I17-Курсы!$B17)</f>
         <v>0.42239999999999611</v>
       </c>
       <c r="J17" s="9">
-        <f>Лист1!J17-Лист1!$B17</f>
+        <f>ABS(Курсы!J17-Курсы!$B17)</f>
         <v>0.4626000000000019</v>
       </c>
       <c r="K17" s="9">
-        <f>Лист1!K17-Лист1!$B17</f>
+        <f>ABS(Курсы!K17-Курсы!$B17)</f>
         <v>0.5992999999999995</v>
       </c>
       <c r="L17" s="9">
-        <f>Лист1!L17-Лист1!$B17</f>
+        <f>ABS(Курсы!L17-Курсы!$B17)</f>
         <v>0.5992999999999995</v>
       </c>
       <c r="M17" s="9">
-        <f>Лист1!M17-Лист1!$B17</f>
+        <f>ABS(Курсы!M17-Курсы!$B17)</f>
         <v>0.5992999999999995</v>
       </c>
       <c r="N17" s="9">
-        <f>Лист1!N17-Лист1!$B17</f>
+        <f>ABS(Курсы!N17-Курсы!$B17)</f>
         <v>0.5992999999999995</v>
       </c>
       <c r="O17" s="9">
-        <f>Лист1!O17-Лист1!$B17</f>
+        <f>ABS(Курсы!O17-Курсы!$B17)</f>
         <v>0.73899999999999721</v>
       </c>
       <c r="P17" s="9">
-        <f>Лист1!P17-Лист1!$B17</f>
+        <f>ABS(Курсы!P17-Курсы!$B17)</f>
         <v>0.82399999999999807</v>
       </c>
       <c r="Q17" s="9">
-        <f>Лист1!Q17-Лист1!$B17</f>
+        <f>ABS(Курсы!Q17-Курсы!$B17)</f>
         <v>0.79410000000000025</v>
       </c>
       <c r="R17" s="9">
-        <f>Лист1!R17-Лист1!$B17</f>
+        <f>ABS(Курсы!R17-Курсы!$B17)</f>
         <v>0.97659999999999769</v>
       </c>
       <c r="U17" s="3">
@@ -4963,67 +4959,67 @@
         <v>34.930799999999998</v>
       </c>
       <c r="C18" s="9">
-        <f>Лист1!C18-Лист1!$B18</f>
+        <f>ABS(Курсы!C18-Курсы!$B18)</f>
         <v>0.81920000000000215</v>
       </c>
       <c r="D18" s="9">
-        <f>Лист1!D18-Лист1!$B18</f>
+        <f>ABS(Курсы!D18-Курсы!$B18)</f>
         <v>0.67450000000000188</v>
       </c>
       <c r="E18" s="9">
-        <f>Лист1!E18-Лист1!$B18</f>
+        <f>ABS(Курсы!E18-Курсы!$B18)</f>
         <v>9.3200000000003058E-2</v>
       </c>
       <c r="F18" s="9">
-        <f>Лист1!F18-Лист1!$B18</f>
+        <f>ABS(Курсы!F18-Курсы!$B18)</f>
         <v>0.32090000000000174</v>
       </c>
       <c r="G18" s="9">
-        <f>Лист1!G18-Лист1!$B18</f>
+        <f>ABS(Курсы!G18-Курсы!$B18)</f>
         <v>0.58460000000000178</v>
       </c>
       <c r="H18" s="9">
-        <f>Лист1!H18-Лист1!$B18</f>
+        <f>ABS(Курсы!H18-Курсы!$B18)</f>
         <v>0.57019999999999982</v>
       </c>
       <c r="I18" s="9">
-        <f>Лист1!I18-Лист1!$B18</f>
+        <f>ABS(Курсы!I18-Курсы!$B18)</f>
         <v>0.57019999999999982</v>
       </c>
       <c r="J18" s="9">
-        <f>Лист1!J18-Лист1!$B18</f>
+        <f>ABS(Курсы!J18-Курсы!$B18)</f>
         <v>0.57019999999999982</v>
       </c>
       <c r="K18" s="9">
-        <f>Лист1!K18-Лист1!$B18</f>
+        <f>ABS(Курсы!K18-Курсы!$B18)</f>
         <v>0.53710000000000235</v>
       </c>
       <c r="L18" s="9">
-        <f>Лист1!L18-Лист1!$B18</f>
+        <f>ABS(Курсы!L18-Курсы!$B18)</f>
         <v>0.61670000000000158</v>
       </c>
       <c r="M18" s="9">
-        <f>Лист1!M18-Лист1!$B18</f>
+        <f>ABS(Курсы!M18-Курсы!$B18)</f>
         <v>0.81850000000000023</v>
       </c>
       <c r="N18" s="9">
-        <f>Лист1!N18-Лист1!$B18</f>
+        <f>ABS(Курсы!N18-Курсы!$B18)</f>
         <v>0.6273000000000053</v>
       </c>
       <c r="O18" s="9">
-        <f>Лист1!O18-Лист1!$B18</f>
+        <f>ABS(Курсы!O18-Курсы!$B18)</f>
         <v>0.69310000000000116</v>
       </c>
       <c r="P18" s="9">
-        <f>Лист1!P18-Лист1!$B18</f>
+        <f>ABS(Курсы!P18-Курсы!$B18)</f>
         <v>0.69310000000000116</v>
       </c>
       <c r="Q18" s="9">
-        <f>Лист1!Q18-Лист1!$B18</f>
+        <f>ABS(Курсы!Q18-Курсы!$B18)</f>
         <v>0.69310000000000116</v>
       </c>
       <c r="R18" s="9">
-        <f>Лист1!R18-Лист1!$B18</f>
+        <f>ABS(Курсы!R18-Курсы!$B18)</f>
         <v>1.0581999999999994</v>
       </c>
       <c r="U18" s="3">
@@ -5103,67 +5099,67 @@
         <v>34.408900000000003</v>
       </c>
       <c r="C19" s="9">
-        <f>Лист1!C19-Лист1!$B19</f>
+        <f>ABS(Курсы!C19-Курсы!$B19)</f>
         <v>1.3910999999999945</v>
       </c>
       <c r="D19" s="9">
-        <f>Лист1!D19-Лист1!$B19</f>
+        <f>ABS(Курсы!D19-Курсы!$B19)</f>
         <v>1.3138000000000005</v>
       </c>
       <c r="E19" s="9">
-        <f>Лист1!E19-Лист1!$B19</f>
+        <f>ABS(Курсы!E19-Курсы!$B19)</f>
         <v>1.3138000000000005</v>
       </c>
       <c r="F19" s="9">
-        <f>Лист1!F19-Лист1!$B19</f>
+        <f>ABS(Курсы!F19-Курсы!$B19)</f>
         <v>1.3138000000000005</v>
       </c>
       <c r="G19" s="9">
-        <f>Лист1!G19-Лист1!$B19</f>
+        <f>ABS(Курсы!G19-Курсы!$B19)</f>
         <v>1.3138000000000005</v>
       </c>
       <c r="H19" s="9">
-        <f>Лист1!H19-Лист1!$B19</f>
+        <f>ABS(Курсы!H19-Курсы!$B19)</f>
         <v>1.3138000000000005</v>
       </c>
       <c r="I19" s="9">
-        <f>Лист1!I19-Лист1!$B19</f>
+        <f>ABS(Курсы!I19-Курсы!$B19)</f>
         <v>1.4291999999999945</v>
       </c>
       <c r="J19" s="9">
-        <f>Лист1!J19-Лист1!$B19</f>
+        <f>ABS(Курсы!J19-Курсы!$B19)</f>
         <v>1.2460999999999984</v>
       </c>
       <c r="K19" s="9">
-        <f>Лист1!K19-Лист1!$B19</f>
+        <f>ABS(Курсы!K19-Курсы!$B19)</f>
         <v>1.0882000000000005</v>
       </c>
       <c r="L19" s="9">
-        <f>Лист1!L19-Лист1!$B19</f>
+        <f>ABS(Курсы!L19-Курсы!$B19)</f>
         <v>0.62539999999999907</v>
       </c>
       <c r="M19" s="9">
-        <f>Лист1!M19-Лист1!$B19</f>
+        <f>ABS(Курсы!M19-Курсы!$B19)</f>
         <v>0.62539999999999907</v>
       </c>
       <c r="N19" s="9">
-        <f>Лист1!N19-Лист1!$B19</f>
+        <f>ABS(Курсы!N19-Курсы!$B19)</f>
         <v>0.62539999999999907</v>
       </c>
       <c r="O19" s="9">
-        <f>Лист1!O19-Лист1!$B19</f>
+        <f>ABS(Курсы!O19-Курсы!$B19)</f>
         <v>0.62539999999999907</v>
       </c>
       <c r="P19" s="9">
-        <f>Лист1!P19-Лист1!$B19</f>
+        <f>ABS(Курсы!P19-Курсы!$B19)</f>
         <v>0.80019999999999669</v>
       </c>
       <c r="Q19" s="9">
-        <f>Лист1!Q19-Лист1!$B19</f>
+        <f>ABS(Курсы!Q19-Курсы!$B19)</f>
         <v>0.46999999999999886</v>
       </c>
       <c r="R19" s="9">
-        <f>Лист1!R19-Лист1!$B19</f>
+        <f>ABS(Курсы!R19-Курсы!$B19)</f>
         <v>0.30010000000000048</v>
       </c>
       <c r="U19" s="3">
@@ -5243,68 +5239,68 @@
         <v>34.639000000000003</v>
       </c>
       <c r="C20" s="9">
-        <f>Лист1!C20-Лист1!$B20</f>
+        <f>ABS(Курсы!C20-Курсы!$B20)</f>
         <v>0.8609999999999971</v>
       </c>
       <c r="D20" s="9">
-        <f>Лист1!D20-Лист1!$B20</f>
+        <f>ABS(Курсы!D20-Курсы!$B20)</f>
         <v>9.6199999999996066E-2</v>
       </c>
       <c r="E20" s="9">
-        <f>Лист1!E20-Лист1!$B20</f>
+        <f>ABS(Курсы!E20-Курсы!$B20)</f>
         <v>9.6199999999996066E-2</v>
       </c>
       <c r="F20" s="9">
-        <f>Лист1!F20-Лист1!$B20</f>
+        <f>ABS(Курсы!F20-Курсы!$B20)</f>
         <v>0.24969999999999715</v>
       </c>
       <c r="G20" s="9">
-        <f>Лист1!G20-Лист1!$B20</f>
+        <f>ABS(Курсы!G20-Курсы!$B20)</f>
         <v>0.37249999999999517</v>
       </c>
       <c r="H20" s="9">
-        <f>Лист1!H20-Лист1!$B20</f>
+        <f>ABS(Курсы!H20-Курсы!$B20)</f>
         <v>0.50079999999999814</v>
       </c>
       <c r="I20" s="9">
-        <f>Лист1!I20-Лист1!$B20</f>
+        <f>ABS(Курсы!I20-Курсы!$B20)</f>
         <v>0.26529999999999632</v>
       </c>
       <c r="J20" s="9">
-        <f>Лист1!J20-Лист1!$B20</f>
+        <f>ABS(Курсы!J20-Курсы!$B20)</f>
         <v>1.829999999999643E-2</v>
       </c>
       <c r="K20" s="9">
-        <f>Лист1!K20-Лист1!$B20</f>
+        <f>ABS(Курсы!K20-Курсы!$B20)</f>
         <v>1.829999999999643E-2</v>
       </c>
       <c r="L20" s="9">
-        <f>Лист1!L20-Лист1!$B20</f>
+        <f>ABS(Курсы!L20-Курсы!$B20)</f>
         <v>1.829999999999643E-2</v>
       </c>
       <c r="M20" s="9">
-        <f>Лист1!M20-Лист1!$B20</f>
-        <v>-0.30870000000000175</v>
+        <f>ABS(Курсы!M20-Курсы!$B20)</f>
+        <v>0.30870000000000175</v>
       </c>
       <c r="N20" s="9">
-        <f>Лист1!N20-Лист1!$B20</f>
-        <v>-0.27090000000000458</v>
+        <f>ABS(Курсы!N20-Курсы!$B20)</f>
+        <v>0.27090000000000458</v>
       </c>
       <c r="O20" s="9">
-        <f>Лист1!O20-Лист1!$B20</f>
-        <v>-0.31630000000000535</v>
+        <f>ABS(Курсы!O20-Курсы!$B20)</f>
+        <v>0.31630000000000535</v>
       </c>
       <c r="P20" s="9">
-        <f>Лист1!P20-Лист1!$B20</f>
-        <v>-0.31630000000000535</v>
+        <f>ABS(Курсы!P20-Курсы!$B20)</f>
+        <v>0.31630000000000535</v>
       </c>
       <c r="Q20" s="9">
-        <f>Лист1!Q20-Лист1!$B20</f>
-        <v>-0.31630000000000535</v>
+        <f>ABS(Курсы!Q20-Курсы!$B20)</f>
+        <v>0.31630000000000535</v>
       </c>
       <c r="R20" s="9">
-        <f>Лист1!R20-Лист1!$B20</f>
-        <v>-0.31630000000000535</v>
+        <f>ABS(Курсы!R20-Курсы!$B20)</f>
+        <v>0.31630000000000535</v>
       </c>
       <c r="U20" s="3">
         <f t="shared" si="2"/>
@@ -5383,68 +5379,68 @@
         <v>36.1113</v>
       </c>
       <c r="C21" s="9">
-        <f>Лист1!C21-Лист1!$B21</f>
-        <v>-1.1113</v>
+        <f>ABS(Курсы!C21-Курсы!$B21)</f>
+        <v>1.1113</v>
       </c>
       <c r="D21" s="9">
-        <f>Лист1!D21-Лист1!$B21</f>
-        <v>-2.2678999999999974</v>
+        <f>ABS(Курсы!D21-Курсы!$B21)</f>
+        <v>2.2678999999999974</v>
       </c>
       <c r="E21" s="9">
-        <f>Лист1!E21-Лист1!$B21</f>
-        <v>-1.8838000000000008</v>
+        <f>ABS(Курсы!E21-Курсы!$B21)</f>
+        <v>1.8838000000000008</v>
       </c>
       <c r="F21" s="9">
-        <f>Лист1!F21-Лист1!$B21</f>
-        <v>-1.861699999999999</v>
+        <f>ABS(Курсы!F21-Курсы!$B21)</f>
+        <v>1.861699999999999</v>
       </c>
       <c r="G21" s="9">
-        <f>Лист1!G21-Лист1!$B21</f>
-        <v>-1.916400000000003</v>
+        <f>ABS(Курсы!G21-Курсы!$B21)</f>
+        <v>1.916400000000003</v>
       </c>
       <c r="H21" s="9">
-        <f>Лист1!H21-Лист1!$B21</f>
-        <v>-1.787700000000001</v>
+        <f>ABS(Курсы!H21-Курсы!$B21)</f>
+        <v>1.787700000000001</v>
       </c>
       <c r="I21" s="9">
-        <f>Лист1!I21-Лист1!$B21</f>
-        <v>-1.787700000000001</v>
+        <f>ABS(Курсы!I21-Курсы!$B21)</f>
+        <v>1.787700000000001</v>
       </c>
       <c r="J21" s="9">
-        <f>Лист1!J21-Лист1!$B21</f>
-        <v>-1.787700000000001</v>
+        <f>ABS(Курсы!J21-Курсы!$B21)</f>
+        <v>1.787700000000001</v>
       </c>
       <c r="K21" s="9">
-        <f>Лист1!K21-Лист1!$B21</f>
-        <v>-1.5422000000000011</v>
+        <f>ABS(Курсы!K21-Курсы!$B21)</f>
+        <v>1.5422000000000011</v>
       </c>
       <c r="L21" s="9">
-        <f>Лист1!L21-Лист1!$B21</f>
-        <v>-1.6854999999999976</v>
+        <f>ABS(Курсы!L21-Курсы!$B21)</f>
+        <v>1.6854999999999976</v>
       </c>
       <c r="M21" s="9">
-        <f>Лист1!M21-Лист1!$B21</f>
-        <v>-2.035499999999999</v>
+        <f>ABS(Курсы!M21-Курсы!$B21)</f>
+        <v>2.035499999999999</v>
       </c>
       <c r="N21" s="9">
-        <f>Лист1!N21-Лист1!$B21</f>
-        <v>-2.2760000000000034</v>
+        <f>ABS(Курсы!N21-Курсы!$B21)</f>
+        <v>2.2760000000000034</v>
       </c>
       <c r="O21" s="9">
-        <f>Лист1!O21-Лист1!$B21</f>
-        <v>-2.0531000000000006</v>
+        <f>ABS(Курсы!O21-Курсы!$B21)</f>
+        <v>2.0531000000000006</v>
       </c>
       <c r="P21" s="9">
-        <f>Лист1!P21-Лист1!$B21</f>
-        <v>-2.0531000000000006</v>
+        <f>ABS(Курсы!P21-Курсы!$B21)</f>
+        <v>2.0531000000000006</v>
       </c>
       <c r="Q21" s="9">
-        <f>Лист1!Q21-Лист1!$B21</f>
-        <v>-2.0531000000000006</v>
+        <f>ABS(Курсы!Q21-Курсы!$B21)</f>
+        <v>2.0531000000000006</v>
       </c>
       <c r="R21" s="9">
-        <f>Лист1!R21-Лист1!$B21</f>
-        <v>-1.7978000000000023</v>
+        <f>ABS(Курсы!R21-Курсы!$B21)</f>
+        <v>1.7978000000000023</v>
       </c>
       <c r="U21" s="3">
         <f t="shared" si="2"/>
@@ -5523,68 +5519,68 @@
         <v>37.876600000000003</v>
       </c>
       <c r="C22" s="9">
-        <f>Лист1!C22-Лист1!$B22</f>
-        <v>-2.8766000000000034</v>
+        <f>ABS(Курсы!C22-Курсы!$B22)</f>
+        <v>2.8766000000000034</v>
       </c>
       <c r="D22" s="9">
-        <f>Лист1!D22-Лист1!$B22</f>
-        <v>-2.4328000000000003</v>
+        <f>ABS(Курсы!D22-Курсы!$B22)</f>
+        <v>2.4328000000000003</v>
       </c>
       <c r="E22" s="9">
-        <f>Лист1!E22-Лист1!$B22</f>
-        <v>-2.1494</v>
+        <f>ABS(Курсы!E22-Курсы!$B22)</f>
+        <v>2.1494</v>
       </c>
       <c r="F22" s="9">
-        <f>Лист1!F22-Лист1!$B22</f>
-        <v>-2.1494</v>
+        <f>ABS(Курсы!F22-Курсы!$B22)</f>
+        <v>2.1494</v>
       </c>
       <c r="G22" s="9">
-        <f>Лист1!G22-Лист1!$B22</f>
-        <v>-2.1494</v>
+        <f>ABS(Курсы!G22-Курсы!$B22)</f>
+        <v>2.1494</v>
       </c>
       <c r="H22" s="9">
-        <f>Лист1!H22-Лист1!$B22</f>
-        <v>-2.2161000000000044</v>
+        <f>ABS(Курсы!H22-Курсы!$B22)</f>
+        <v>2.2161000000000044</v>
       </c>
       <c r="I22" s="9">
-        <f>Лист1!I22-Лист1!$B22</f>
-        <v>-2.0779000000000067</v>
+        <f>ABS(Курсы!I22-Курсы!$B22)</f>
+        <v>2.0779000000000067</v>
       </c>
       <c r="J22" s="9">
-        <f>Лист1!J22-Лист1!$B22</f>
-        <v>-1.7664000000000044</v>
+        <f>ABS(Курсы!J22-Курсы!$B22)</f>
+        <v>1.7664000000000044</v>
       </c>
       <c r="K22" s="9">
-        <f>Лист1!K22-Лист1!$B22</f>
-        <v>-1.6270000000000024</v>
+        <f>ABS(Курсы!K22-Курсы!$B22)</f>
+        <v>1.6270000000000024</v>
       </c>
       <c r="L22" s="9">
-        <f>Лист1!L22-Лист1!$B22</f>
-        <v>-1.4305000000000021</v>
+        <f>ABS(Курсы!L22-Курсы!$B22)</f>
+        <v>1.4305000000000021</v>
       </c>
       <c r="M22" s="9">
-        <f>Лист1!M22-Лист1!$B22</f>
-        <v>-1.4305000000000021</v>
+        <f>ABS(Курсы!M22-Курсы!$B22)</f>
+        <v>1.4305000000000021</v>
       </c>
       <c r="N22" s="9">
-        <f>Лист1!N22-Лист1!$B22</f>
-        <v>-1.4305000000000021</v>
+        <f>ABS(Курсы!N22-Курсы!$B22)</f>
+        <v>1.4305000000000021</v>
       </c>
       <c r="O22" s="9">
-        <f>Лист1!O22-Лист1!$B22</f>
-        <v>-1.8291000000000039</v>
+        <f>ABS(Курсы!O22-Курсы!$B22)</f>
+        <v>1.8291000000000039</v>
       </c>
       <c r="P22" s="9">
-        <f>Лист1!P22-Лист1!$B22</f>
-        <v>-1.7876000000000047</v>
+        <f>ABS(Курсы!P22-Курсы!$B22)</f>
+        <v>1.7876000000000047</v>
       </c>
       <c r="Q22" s="9">
-        <f>Лист1!Q22-Лист1!$B22</f>
-        <v>-1.6544000000000025</v>
+        <f>ABS(Курсы!Q22-Курсы!$B22)</f>
+        <v>1.6544000000000025</v>
       </c>
       <c r="R22" s="9">
-        <f>Лист1!R22-Лист1!$B22</f>
-        <v>-1.8371000000000066</v>
+        <f>ABS(Курсы!R22-Курсы!$B22)</f>
+        <v>1.8371000000000066</v>
       </c>
       <c r="U22" s="3">
         <f t="shared" si="2"/>
@@ -5663,68 +5659,68 @@
         <v>40.771000000000001</v>
       </c>
       <c r="C23" s="9">
-        <f>Лист1!C23-Лист1!$B23</f>
-        <v>-4.0210000000000008</v>
+        <f>ABS(Курсы!C23-Курсы!$B23)</f>
+        <v>4.0210000000000008</v>
       </c>
       <c r="D23" s="9">
-        <f>Лист1!D23-Лист1!$B23</f>
-        <v>-3.8393999999999977</v>
+        <f>ABS(Курсы!D23-Курсы!$B23)</f>
+        <v>3.8393999999999977</v>
       </c>
       <c r="E23" s="9">
-        <f>Лист1!E23-Лист1!$B23</f>
-        <v>-3.4765000000000015</v>
+        <f>ABS(Курсы!E23-Курсы!$B23)</f>
+        <v>3.4765000000000015</v>
       </c>
       <c r="F23" s="9">
-        <f>Лист1!F23-Лист1!$B23</f>
-        <v>-3.4230000000000018</v>
+        <f>ABS(Курсы!F23-Курсы!$B23)</f>
+        <v>3.4230000000000018</v>
       </c>
       <c r="G23" s="9">
-        <f>Лист1!G23-Лист1!$B23</f>
-        <v>-3.4527000000000001</v>
+        <f>ABS(Курсы!G23-Курсы!$B23)</f>
+        <v>3.4527000000000001</v>
       </c>
       <c r="H23" s="9">
-        <f>Лист1!H23-Лист1!$B23</f>
-        <v>-3.9671999999999983</v>
+        <f>ABS(Курсы!H23-Курсы!$B23)</f>
+        <v>3.9671999999999983</v>
       </c>
       <c r="I23" s="9">
-        <f>Лист1!I23-Лист1!$B23</f>
-        <v>-3.8491</v>
+        <f>ABS(Курсы!I23-Курсы!$B23)</f>
+        <v>3.8491</v>
       </c>
       <c r="J23" s="9">
-        <f>Лист1!J23-Лист1!$B23</f>
-        <v>-3.8491</v>
+        <f>ABS(Курсы!J23-Курсы!$B23)</f>
+        <v>3.8491</v>
       </c>
       <c r="K23" s="9">
-        <f>Лист1!K23-Лист1!$B23</f>
-        <v>-3.8491</v>
+        <f>ABS(Курсы!K23-Курсы!$B23)</f>
+        <v>3.8491</v>
       </c>
       <c r="L23" s="9">
-        <f>Лист1!L23-Лист1!$B23</f>
-        <v>-3.6844000000000037</v>
+        <f>ABS(Курсы!L23-Курсы!$B23)</f>
+        <v>3.6844000000000037</v>
       </c>
       <c r="M23" s="9">
-        <f>Лист1!M23-Лист1!$B23</f>
-        <v>-3.7449000000000012</v>
+        <f>ABS(Курсы!M23-Курсы!$B23)</f>
+        <v>3.7449000000000012</v>
       </c>
       <c r="N23" s="9">
-        <f>Лист1!N23-Лист1!$B23</f>
-        <v>-3.601700000000001</v>
+        <f>ABS(Курсы!N23-Курсы!$B23)</f>
+        <v>3.601700000000001</v>
       </c>
       <c r="O23" s="9">
-        <f>Лист1!O23-Лист1!$B23</f>
-        <v>-3.3952000000000027</v>
+        <f>ABS(Курсы!O23-Курсы!$B23)</f>
+        <v>3.3952000000000027</v>
       </c>
       <c r="P23" s="9">
-        <f>Лист1!P23-Лист1!$B23</f>
-        <v>-3.116500000000002</v>
+        <f>ABS(Курсы!P23-Курсы!$B23)</f>
+        <v>3.116500000000002</v>
       </c>
       <c r="Q23" s="9">
-        <f>Лист1!Q23-Лист1!$B23</f>
-        <v>-3.116500000000002</v>
+        <f>ABS(Курсы!Q23-Курсы!$B23)</f>
+        <v>3.116500000000002</v>
       </c>
       <c r="R23" s="9">
-        <f>Лист1!R23-Лист1!$B23</f>
-        <v>-3.116500000000002</v>
+        <f>ABS(Курсы!R23-Курсы!$B23)</f>
+        <v>3.116500000000002</v>
       </c>
       <c r="U23" s="3">
         <f t="shared" si="2"/>
@@ -5803,68 +5799,68 @@
         <v>45.914299999999997</v>
       </c>
       <c r="C24" s="9">
-        <f>Лист1!C24-Лист1!$B24</f>
-        <v>-6.9142999999999972</v>
+        <f>ABS(Курсы!C24-Курсы!$B24)</f>
+        <v>6.9142999999999972</v>
       </c>
       <c r="D24" s="9">
-        <f>Лист1!D24-Лист1!$B24</f>
-        <v>-6.530699999999996</v>
+        <f>ABS(Курсы!D24-Курсы!$B24)</f>
+        <v>6.530699999999996</v>
       </c>
       <c r="E24" s="9">
-        <f>Лист1!E24-Лист1!$B24</f>
-        <v>-6.2538999999999945</v>
+        <f>ABS(Курсы!E24-Курсы!$B24)</f>
+        <v>6.2538999999999945</v>
       </c>
       <c r="F24" s="9">
-        <f>Лист1!F24-Лист1!$B24</f>
-        <v>-6.366899999999994</v>
+        <f>ABS(Курсы!F24-Курсы!$B24)</f>
+        <v>6.366899999999994</v>
       </c>
       <c r="G24" s="9">
-        <f>Лист1!G24-Лист1!$B24</f>
-        <v>-6.2162999999999968</v>
+        <f>ABS(Курсы!G24-Курсы!$B24)</f>
+        <v>6.2162999999999968</v>
       </c>
       <c r="H24" s="9">
-        <f>Лист1!H24-Лист1!$B24</f>
-        <v>-6.2162999999999968</v>
+        <f>ABS(Курсы!H24-Курсы!$B24)</f>
+        <v>6.2162999999999968</v>
       </c>
       <c r="I24" s="9">
-        <f>Лист1!I24-Лист1!$B24</f>
-        <v>-6.2162999999999968</v>
+        <f>ABS(Курсы!I24-Курсы!$B24)</f>
+        <v>6.2162999999999968</v>
       </c>
       <c r="J24" s="9">
-        <f>Лист1!J24-Лист1!$B24</f>
-        <v>-5.9322999999999979</v>
+        <f>ABS(Курсы!J24-Курсы!$B24)</f>
+        <v>5.9322999999999979</v>
       </c>
       <c r="K24" s="9">
-        <f>Лист1!K24-Лист1!$B24</f>
-        <v>-6.1725999999999956</v>
+        <f>ABS(Курсы!K24-Курсы!$B24)</f>
+        <v>6.1725999999999956</v>
       </c>
       <c r="L24" s="9">
-        <f>Лист1!L24-Лист1!$B24</f>
-        <v>-5.9323999999999941</v>
+        <f>ABS(Курсы!L24-Курсы!$B24)</f>
+        <v>5.9323999999999941</v>
       </c>
       <c r="M24" s="9">
-        <f>Лист1!M24-Лист1!$B24</f>
-        <v>-5.9343000000000004</v>
+        <f>ABS(Курсы!M24-Курсы!$B24)</f>
+        <v>5.9343000000000004</v>
       </c>
       <c r="N24" s="9">
-        <f>Лист1!N24-Лист1!$B24</f>
-        <v>-5.7017999999999986</v>
+        <f>ABS(Курсы!N24-Курсы!$B24)</f>
+        <v>5.7017999999999986</v>
       </c>
       <c r="O24" s="9">
-        <f>Лист1!O24-Лист1!$B24</f>
-        <v>-5.7017999999999986</v>
+        <f>ABS(Курсы!O24-Курсы!$B24)</f>
+        <v>5.7017999999999986</v>
       </c>
       <c r="P24" s="9">
-        <f>Лист1!P24-Лист1!$B24</f>
-        <v>-5.7017999999999986</v>
+        <f>ABS(Курсы!P24-Курсы!$B24)</f>
+        <v>5.7017999999999986</v>
       </c>
       <c r="Q24" s="9">
-        <f>Лист1!Q24-Лист1!$B24</f>
-        <v>-5.5891999999999982</v>
+        <f>ABS(Курсы!Q24-Курсы!$B24)</f>
+        <v>5.5891999999999982</v>
       </c>
       <c r="R24" s="9">
-        <f>Лист1!R24-Лист1!$B24</f>
-        <v>-5.383899999999997</v>
+        <f>ABS(Курсы!R24-Курсы!$B24)</f>
+        <v>5.383899999999997</v>
       </c>
       <c r="U24" s="3">
         <f t="shared" si="2"/>
@@ -5943,68 +5939,68 @@
         <v>55.538899999999998</v>
       </c>
       <c r="C25" s="9">
-        <f>Лист1!C25-Лист1!$B25</f>
-        <v>-14.038899999999998</v>
+        <f>ABS(Курсы!C25-Курсы!$B25)</f>
+        <v>14.038899999999998</v>
       </c>
       <c r="D25" s="9">
-        <f>Лист1!D25-Лист1!$B25</f>
-        <v>-13.5762</v>
+        <f>ABS(Курсы!D25-Курсы!$B25)</f>
+        <v>13.5762</v>
       </c>
       <c r="E25" s="9">
-        <f>Лист1!E25-Лист1!$B25</f>
-        <v>-13.5762</v>
+        <f>ABS(Курсы!E25-Курсы!$B25)</f>
+        <v>13.5762</v>
       </c>
       <c r="F25" s="9">
-        <f>Лист1!F25-Лист1!$B25</f>
-        <v>-13.5762</v>
+        <f>ABS(Курсы!F25-Курсы!$B25)</f>
+        <v>13.5762</v>
       </c>
       <c r="G25" s="9">
-        <f>Лист1!G25-Лист1!$B25</f>
-        <v>-13.5762</v>
+        <f>ABS(Курсы!G25-Курсы!$B25)</f>
+        <v>13.5762</v>
       </c>
       <c r="H25" s="9">
-        <f>Лист1!H25-Лист1!$B25</f>
-        <v>-13.5762</v>
+        <f>ABS(Курсы!H25-Курсы!$B25)</f>
+        <v>13.5762</v>
       </c>
       <c r="I25" s="9">
-        <f>Лист1!I25-Лист1!$B25</f>
-        <v>-11.139600000000002</v>
+        <f>ABS(Курсы!I25-Курсы!$B25)</f>
+        <v>11.139600000000002</v>
       </c>
       <c r="J25" s="9">
-        <f>Лист1!J25-Лист1!$B25</f>
-        <v>-10.353499999999997</v>
+        <f>ABS(Курсы!J25-Курсы!$B25)</f>
+        <v>10.353499999999997</v>
       </c>
       <c r="K25" s="9">
-        <f>Лист1!K25-Лист1!$B25</f>
-        <v>-7.6614999999999966</v>
+        <f>ABS(Курсы!K25-Курсы!$B25)</f>
+        <v>7.6614999999999966</v>
       </c>
       <c r="L25" s="9">
-        <f>Лист1!L25-Лист1!$B25</f>
-        <v>-7.6614999999999966</v>
+        <f>ABS(Курсы!L25-Курсы!$B25)</f>
+        <v>7.6614999999999966</v>
       </c>
       <c r="M25" s="9">
-        <f>Лист1!M25-Лист1!$B25</f>
-        <v>-7.6614999999999966</v>
+        <f>ABS(Курсы!M25-Курсы!$B25)</f>
+        <v>7.6614999999999966</v>
       </c>
       <c r="N25" s="9">
-        <f>Лист1!N25-Лист1!$B25</f>
-        <v>-9.6462999999999965</v>
+        <f>ABS(Курсы!N25-Курсы!$B25)</f>
+        <v>9.6462999999999965</v>
       </c>
       <c r="O25" s="9">
-        <f>Лист1!O25-Лист1!$B25</f>
-        <v>-9.5869</v>
+        <f>ABS(Курсы!O25-Курсы!$B25)</f>
+        <v>9.5869</v>
       </c>
       <c r="P25" s="9">
-        <f>Лист1!P25-Лист1!$B25</f>
-        <v>-9.2010000000000005</v>
+        <f>ABS(Курсы!P25-Курсы!$B25)</f>
+        <v>9.2010000000000005</v>
       </c>
       <c r="Q25" s="9">
-        <f>Лист1!Q25-Лист1!$B25</f>
-        <v>-9.4155999999999977</v>
+        <f>ABS(Курсы!Q25-Курсы!$B25)</f>
+        <v>9.4155999999999977</v>
       </c>
       <c r="R25" s="9">
-        <f>Лист1!R25-Лист1!$B25</f>
-        <v>-8.1468999999999951</v>
+        <f>ABS(Курсы!R25-Курсы!$B25)</f>
+        <v>8.1468999999999951</v>
       </c>
       <c r="U25" s="3">
         <f t="shared" si="2"/>
@@ -6083,68 +6079,68 @@
         <v>61.877299999999998</v>
       </c>
       <c r="C26" s="9">
-        <f>Лист1!C26-Лист1!$B26</f>
-        <v>-11.877299999999998</v>
+        <f>ABS(Курсы!C26-Курсы!$B26)</f>
+        <v>11.877299999999998</v>
       </c>
       <c r="D26" s="9">
-        <f>Лист1!D26-Лист1!$B26</f>
-        <v>-12.555299999999995</v>
+        <f>ABS(Курсы!D26-Курсы!$B26)</f>
+        <v>12.555299999999995</v>
       </c>
       <c r="E26" s="9">
-        <f>Лист1!E26-Лист1!$B26</f>
-        <v>-10.070499999999996</v>
+        <f>ABS(Курсы!E26-Курсы!$B26)</f>
+        <v>10.070499999999996</v>
       </c>
       <c r="F26" s="9">
-        <f>Лист1!F26-Лист1!$B26</f>
-        <v>-11.109499999999997</v>
+        <f>ABS(Курсы!F26-Курсы!$B26)</f>
+        <v>11.109499999999997</v>
       </c>
       <c r="G26" s="9">
-        <f>Лист1!G26-Лист1!$B26</f>
-        <v>-7.495199999999997</v>
+        <f>ABS(Курсы!G26-Курсы!$B26)</f>
+        <v>7.495199999999997</v>
       </c>
       <c r="H26" s="9">
-        <f>Лист1!H26-Лист1!$B26</f>
-        <v>-9.1841000000000008</v>
+        <f>ABS(Курсы!H26-Курсы!$B26)</f>
+        <v>9.1841000000000008</v>
       </c>
       <c r="I26" s="9">
-        <f>Лист1!I26-Лист1!$B26</f>
-        <v>-8.768499999999996</v>
+        <f>ABS(Курсы!I26-Курсы!$B26)</f>
+        <v>8.768499999999996</v>
       </c>
       <c r="J26" s="9">
-        <f>Лист1!J26-Лист1!$B26</f>
-        <v>-8.768499999999996</v>
+        <f>ABS(Курсы!J26-Курсы!$B26)</f>
+        <v>8.768499999999996</v>
       </c>
       <c r="K26" s="9">
-        <f>Лист1!K26-Лист1!$B26</f>
-        <v>-8.768499999999996</v>
+        <f>ABS(Курсы!K26-Курсы!$B26)</f>
+        <v>8.768499999999996</v>
       </c>
       <c r="L26" s="9">
-        <f>Лист1!L26-Лист1!$B26</f>
-        <v>-8.5694000000000017</v>
+        <f>ABS(Курсы!L26-Курсы!$B26)</f>
+        <v>8.5694000000000017</v>
       </c>
       <c r="M26" s="9">
-        <f>Лист1!M26-Лист1!$B26</f>
-        <v>-7.6657000000000011</v>
+        <f>ABS(Курсы!M26-Курсы!$B26)</f>
+        <v>7.6657000000000011</v>
       </c>
       <c r="N26" s="9">
-        <f>Лист1!N26-Лист1!$B26</f>
-        <v>-7.6015000000000015</v>
+        <f>ABS(Курсы!N26-Курсы!$B26)</f>
+        <v>7.6015000000000015</v>
       </c>
       <c r="O26" s="9">
-        <f>Лист1!O26-Лист1!$B26</f>
-        <v>-7.0840999999999994</v>
+        <f>ABS(Курсы!O26-Курсы!$B26)</f>
+        <v>7.0840999999999994</v>
       </c>
       <c r="P26" s="9">
-        <f>Лист1!P26-Лист1!$B26</f>
-        <v>-4.9853999999999985</v>
+        <f>ABS(Курсы!P26-Курсы!$B26)</f>
+        <v>4.9853999999999985</v>
       </c>
       <c r="Q26" s="9">
-        <f>Лист1!Q26-Лист1!$B26</f>
-        <v>-4.9853999999999985</v>
+        <f>ABS(Курсы!Q26-Курсы!$B26)</f>
+        <v>4.9853999999999985</v>
       </c>
       <c r="R26" s="9">
-        <f>Лист1!R26-Лист1!$B26</f>
-        <v>-4.9853999999999985</v>
+        <f>ABS(Курсы!R26-Курсы!$B26)</f>
+        <v>4.9853999999999985</v>
       </c>
       <c r="U26" s="3">
         <f t="shared" si="2"/>
@@ -6223,67 +6219,67 @@
         <v>64.683300000000003</v>
       </c>
       <c r="C27" s="9">
-        <f>Лист1!C27-Лист1!$B27</f>
-        <v>-9.6833000000000027</v>
+        <f>ABS(Курсы!C27-Курсы!$B27)</f>
+        <v>9.6833000000000027</v>
       </c>
       <c r="D27" s="9">
-        <f>Лист1!D27-Лист1!$B27</f>
-        <v>-8.4457000000000022</v>
+        <f>ABS(Курсы!D27-Курсы!$B27)</f>
+        <v>8.4457000000000022</v>
       </c>
       <c r="E27" s="9">
-        <f>Лист1!E27-Лист1!$B27</f>
-        <v>-8.4457000000000022</v>
+        <f>ABS(Курсы!E27-Курсы!$B27)</f>
+        <v>8.4457000000000022</v>
       </c>
       <c r="F27" s="9">
-        <f>Лист1!F27-Лист1!$B27</f>
-        <v>-8.4457000000000022</v>
+        <f>ABS(Курсы!F27-Курсы!$B27)</f>
+        <v>8.4457000000000022</v>
       </c>
       <c r="G27" s="9">
-        <f>Лист1!G27-Лист1!$B27</f>
-        <v>-8.4457000000000022</v>
+        <f>ABS(Курсы!G27-Курсы!$B27)</f>
+        <v>8.4457000000000022</v>
       </c>
       <c r="H27" s="9">
-        <f>Лист1!H27-Лист1!$B27</f>
-        <v>-8.4457000000000022</v>
+        <f>ABS(Курсы!H27-Курсы!$B27)</f>
+        <v>8.4457000000000022</v>
       </c>
       <c r="I27" s="9">
-        <f>Лист1!I27-Лист1!$B27</f>
-        <v>-8.4457000000000022</v>
+        <f>ABS(Курсы!I27-Курсы!$B27)</f>
+        <v>8.4457000000000022</v>
       </c>
       <c r="J27" s="9">
-        <f>Лист1!J27-Лист1!$B27</f>
-        <v>-8.4457000000000022</v>
+        <f>ABS(Курсы!J27-Курсы!$B27)</f>
+        <v>8.4457000000000022</v>
       </c>
       <c r="K27" s="9">
-        <f>Лист1!K27-Лист1!$B27</f>
-        <v>-8.4457000000000022</v>
+        <f>ABS(Курсы!K27-Курсы!$B27)</f>
+        <v>8.4457000000000022</v>
       </c>
       <c r="L27" s="9">
-        <f>Лист1!L27-Лист1!$B27</f>
-        <v>-8.4457000000000022</v>
+        <f>ABS(Курсы!L27-Курсы!$B27)</f>
+        <v>8.4457000000000022</v>
       </c>
       <c r="M27" s="9">
-        <f>Лист1!M27-Лист1!$B27</f>
-        <v>-8.4457000000000022</v>
+        <f>ABS(Курсы!M27-Курсы!$B27)</f>
+        <v>8.4457000000000022</v>
       </c>
       <c r="N27" s="9">
-        <f>Лист1!N27-Лист1!$B27</f>
-        <v>-8.4457000000000022</v>
+        <f>ABS(Курсы!N27-Курсы!$B27)</f>
+        <v>8.4457000000000022</v>
       </c>
       <c r="O27" s="9">
-        <f>Лист1!O27-Лист1!$B27</f>
-        <v>-8.4457000000000022</v>
+        <f>ABS(Курсы!O27-Курсы!$B27)</f>
+        <v>8.4457000000000022</v>
       </c>
       <c r="P27" s="9">
-        <f>Лист1!P27-Лист1!$B27</f>
-        <v>-1.9470000000000027</v>
+        <f>ABS(Курсы!P27-Курсы!$B27)</f>
+        <v>1.9470000000000027</v>
       </c>
       <c r="Q27" s="9">
-        <f>Лист1!Q27-Лист1!$B27</f>
+        <f>ABS(Курсы!Q27-Курсы!$B27)</f>
         <v>0.15919999999999845</v>
       </c>
       <c r="R27" s="9">
-        <f>Лист1!R27-Лист1!$B27</f>
+        <f>ABS(Курсы!R27-Курсы!$B27)</f>
         <v>1.414999999999992</v>
       </c>
       <c r="U27" s="3">
@@ -6363,67 +6359,67 @@
         <v>60.256300000000003</v>
       </c>
       <c r="C28" s="9">
-        <f>Лист1!C28-Лист1!$B28</f>
+        <f>ABS(Курсы!C28-Курсы!$B28)</f>
         <v>6.7436999999999969</v>
       </c>
       <c r="D28" s="9">
-        <f>Лист1!D28-Лист1!$B28</f>
+        <f>ABS(Курсы!D28-Курсы!$B28)</f>
         <v>8.6728000000000023</v>
       </c>
       <c r="E28" s="9">
-        <f>Лист1!E28-Лист1!$B28</f>
+        <f>ABS(Курсы!E28-Курсы!$B28)</f>
         <v>8.6728000000000023</v>
       </c>
       <c r="F28" s="9">
-        <f>Лист1!F28-Лист1!$B28</f>
+        <f>ABS(Курсы!F28-Курсы!$B28)</f>
         <v>9.4076999999999984</v>
       </c>
       <c r="G28" s="9">
-        <f>Лист1!G28-Лист1!$B28</f>
+        <f>ABS(Курсы!G28-Курсы!$B28)</f>
         <v>7.5163999999999973</v>
       </c>
       <c r="H28" s="9">
-        <f>Лист1!H28-Лист1!$B28</f>
+        <f>ABS(Курсы!H28-Курсы!$B28)</f>
         <v>5.1906999999999996</v>
       </c>
       <c r="I28" s="9">
-        <f>Лист1!I28-Лист1!$B28</f>
+        <f>ABS(Курсы!I28-Курсы!$B28)</f>
         <v>8.3549999999999969</v>
       </c>
       <c r="J28" s="9">
-        <f>Лист1!J28-Лист1!$B28</f>
+        <f>ABS(Курсы!J28-Курсы!$B28)</f>
         <v>5.7868999999999957</v>
       </c>
       <c r="K28" s="9">
-        <f>Лист1!K28-Лист1!$B28</f>
+        <f>ABS(Курсы!K28-Курсы!$B28)</f>
         <v>5.7868999999999957</v>
       </c>
       <c r="L28" s="9">
-        <f>Лист1!L28-Лист1!$B28</f>
+        <f>ABS(Курсы!L28-Курсы!$B28)</f>
         <v>5.7868999999999957</v>
       </c>
       <c r="M28" s="9">
-        <f>Лист1!M28-Лист1!$B28</f>
+        <f>ABS(Курсы!M28-Курсы!$B28)</f>
         <v>5.5253999999999976</v>
       </c>
       <c r="N28" s="9">
-        <f>Лист1!N28-Лист1!$B28</f>
+        <f>ABS(Курсы!N28-Курсы!$B28)</f>
         <v>5.1905999999999963</v>
       </c>
       <c r="O28" s="9">
-        <f>Лист1!O28-Лист1!$B28</f>
+        <f>ABS(Курсы!O28-Курсы!$B28)</f>
         <v>5.802199999999992</v>
       </c>
       <c r="P28" s="9">
-        <f>Лист1!P28-Лист1!$B28</f>
+        <f>ABS(Курсы!P28-Курсы!$B28)</f>
         <v>5.8430999999999997</v>
       </c>
       <c r="Q28" s="9">
-        <f>Лист1!Q28-Лист1!$B28</f>
+        <f>ABS(Курсы!Q28-Курсы!$B28)</f>
         <v>4.8299000000000021</v>
       </c>
       <c r="R28" s="9">
-        <f>Лист1!R28-Лист1!$B28</f>
+        <f>ABS(Курсы!R28-Курсы!$B28)</f>
         <v>4.8299000000000021</v>
       </c>
       <c r="U28" s="3">
@@ -6503,67 +6499,67 @@
         <v>52.933599999999998</v>
       </c>
       <c r="C29" s="9">
-        <f>Лист1!C29-Лист1!$B29</f>
+        <f>ABS(Курсы!C29-Курсы!$B29)</f>
         <v>9.0664000000000016</v>
       </c>
       <c r="D29" s="9">
-        <f>Лист1!D29-Лист1!$B29</f>
+        <f>ABS(Курсы!D29-Курсы!$B29)</f>
         <v>8.3382000000000005</v>
       </c>
       <c r="E29" s="9">
-        <f>Лист1!E29-Лист1!$B29</f>
+        <f>ABS(Курсы!E29-Курсы!$B29)</f>
         <v>8.3382000000000005</v>
       </c>
       <c r="F29" s="9">
-        <f>Лист1!F29-Лист1!$B29</f>
+        <f>ABS(Курсы!F29-Курсы!$B29)</f>
         <v>9.2912000000000035</v>
       </c>
       <c r="G29" s="9">
-        <f>Лист1!G29-Лист1!$B29</f>
+        <f>ABS(Курсы!G29-Курсы!$B29)</f>
         <v>9.4313000000000002</v>
       </c>
       <c r="H29" s="9">
-        <f>Лист1!H29-Лист1!$B29</f>
+        <f>ABS(Курсы!H29-Курсы!$B29)</f>
         <v>8.9408999999999992</v>
       </c>
       <c r="I29" s="9">
-        <f>Лист1!I29-Лист1!$B29</f>
+        <f>ABS(Курсы!I29-Курсы!$B29)</f>
         <v>8.9121000000000024</v>
       </c>
       <c r="J29" s="9">
-        <f>Лист1!J29-Лист1!$B29</f>
+        <f>ABS(Курсы!J29-Курсы!$B29)</f>
         <v>7.0602000000000018</v>
       </c>
       <c r="K29" s="9">
-        <f>Лист1!K29-Лист1!$B29</f>
+        <f>ABS(Курсы!K29-Курсы!$B29)</f>
         <v>7.0602000000000018</v>
       </c>
       <c r="L29" s="9">
-        <f>Лист1!L29-Лист1!$B29</f>
+        <f>ABS(Курсы!L29-Курсы!$B29)</f>
         <v>7.0602000000000018</v>
       </c>
       <c r="M29" s="9">
-        <f>Лист1!M29-Лист1!$B29</f>
+        <f>ABS(Курсы!M29-Курсы!$B29)</f>
         <v>7.0602000000000018</v>
       </c>
       <c r="N29" s="9">
-        <f>Лист1!N29-Лист1!$B29</f>
+        <f>ABS(Курсы!N29-Курсы!$B29)</f>
         <v>7.7313000000000045</v>
       </c>
       <c r="O29" s="9">
-        <f>Лист1!O29-Лист1!$B29</f>
+        <f>ABS(Курсы!O29-Курсы!$B29)</f>
         <v>9.7460999999999984</v>
       </c>
       <c r="P29" s="9">
-        <f>Лист1!P29-Лист1!$B29</f>
+        <f>ABS(Курсы!P29-Курсы!$B29)</f>
         <v>8.0259</v>
       </c>
       <c r="Q29" s="9">
-        <f>Лист1!Q29-Лист1!$B29</f>
+        <f>ABS(Курсы!Q29-Курсы!$B29)</f>
         <v>8.3830999999999989</v>
       </c>
       <c r="R29" s="9">
-        <f>Лист1!R29-Лист1!$B29</f>
+        <f>ABS(Курсы!R29-Курсы!$B29)</f>
         <v>8.3830999999999989</v>
       </c>
       <c r="U29" s="3">
@@ -6643,67 +6639,67 @@
         <v>50.589500000000001</v>
       </c>
       <c r="C30" s="9">
-        <f>Лист1!C30-Лист1!$B30</f>
+        <f>ABS(Курсы!C30-Курсы!$B30)</f>
         <v>9.410499999999999</v>
       </c>
       <c r="D30" s="9">
-        <f>Лист1!D30-Лист1!$B30</f>
+        <f>ABS(Курсы!D30-Курсы!$B30)</f>
         <v>7.0604999999999976</v>
       </c>
       <c r="E30" s="9">
-        <f>Лист1!E30-Лист1!$B30</f>
+        <f>ABS(Курсы!E30-Курсы!$B30)</f>
         <v>7.7640999999999991</v>
       </c>
       <c r="F30" s="9">
-        <f>Лист1!F30-Лист1!$B30</f>
+        <f>ABS(Курсы!F30-Курсы!$B30)</f>
         <v>6.4007000000000005</v>
       </c>
       <c r="G30" s="9">
-        <f>Лист1!G30-Лист1!$B30</f>
+        <f>ABS(Курсы!G30-Курсы!$B30)</f>
         <v>6.1638999999999982</v>
       </c>
       <c r="H30" s="9">
-        <f>Лист1!H30-Лист1!$B30</f>
+        <f>ABS(Курсы!H30-Курсы!$B30)</f>
         <v>6.1638999999999982</v>
       </c>
       <c r="I30" s="9">
-        <f>Лист1!I30-Лист1!$B30</f>
+        <f>ABS(Курсы!I30-Курсы!$B30)</f>
         <v>6.1638999999999982</v>
       </c>
       <c r="J30" s="9">
-        <f>Лист1!J30-Лист1!$B30</f>
+        <f>ABS(Курсы!J30-Курсы!$B30)</f>
         <v>5.9266000000000005</v>
       </c>
       <c r="K30" s="9">
-        <f>Лист1!K30-Лист1!$B30</f>
+        <f>ABS(Курсы!K30-Курсы!$B30)</f>
         <v>4.7432999999999979</v>
       </c>
       <c r="L30" s="9">
-        <f>Лист1!L30-Лист1!$B30</f>
+        <f>ABS(Курсы!L30-Курсы!$B30)</f>
         <v>3.4375</v>
       </c>
       <c r="M30" s="9">
-        <f>Лист1!M30-Лист1!$B30</f>
+        <f>ABS(Курсы!M30-Курсы!$B30)</f>
         <v>1.9528999999999996</v>
       </c>
       <c r="N30" s="9">
-        <f>Лист1!N30-Лист1!$B30</f>
+        <f>ABS(Курсы!N30-Курсы!$B30)</f>
         <v>0.47829999999999728</v>
       </c>
       <c r="O30" s="9">
-        <f>Лист1!O30-Лист1!$B30</f>
+        <f>ABS(Курсы!O30-Курсы!$B30)</f>
         <v>0.47829999999999728</v>
       </c>
       <c r="P30" s="9">
-        <f>Лист1!P30-Лист1!$B30</f>
+        <f>ABS(Курсы!P30-Курсы!$B30)</f>
         <v>0.47829999999999728</v>
       </c>
       <c r="Q30" s="9">
-        <f>Лист1!Q30-Лист1!$B30</f>
+        <f>ABS(Курсы!Q30-Курсы!$B30)</f>
         <v>1.832499999999996</v>
       </c>
       <c r="R30" s="9">
-        <f>Лист1!R30-Лист1!$B30</f>
+        <f>ABS(Курсы!R30-Курсы!$B30)</f>
         <v>1.3853999999999971</v>
       </c>
       <c r="U30" s="3">
@@ -6783,68 +6779,68 @@
         <v>54.508600000000001</v>
       </c>
       <c r="C31" s="9">
-        <f>Лист1!C31-Лист1!$B31</f>
-        <v>-1.5086000000000013</v>
+        <f>ABS(Курсы!C31-Курсы!$B31)</f>
+        <v>1.5086000000000013</v>
       </c>
       <c r="D31" s="9">
-        <f>Лист1!D31-Лист1!$B31</f>
-        <v>-3.3697999999999979</v>
+        <f>ABS(Курсы!D31-Курсы!$B31)</f>
+        <v>3.3697999999999979</v>
       </c>
       <c r="E31" s="9">
-        <f>Лист1!E31-Лист1!$B31</f>
-        <v>-3.3697999999999979</v>
+        <f>ABS(Курсы!E31-Курсы!$B31)</f>
+        <v>3.3697999999999979</v>
       </c>
       <c r="F31" s="9">
-        <f>Лист1!F31-Лист1!$B31</f>
-        <v>-3.3697999999999979</v>
+        <f>ABS(Курсы!F31-Курсы!$B31)</f>
+        <v>3.3697999999999979</v>
       </c>
       <c r="G31" s="9">
-        <f>Лист1!G31-Лист1!$B31</f>
-        <v>-3.3697999999999979</v>
+        <f>ABS(Курсы!G31-Курсы!$B31)</f>
+        <v>3.3697999999999979</v>
       </c>
       <c r="H31" s="9">
-        <f>Лист1!H31-Лист1!$B31</f>
-        <v>-3.3697999999999979</v>
+        <f>ABS(Курсы!H31-Курсы!$B31)</f>
+        <v>3.3697999999999979</v>
       </c>
       <c r="I31" s="9">
-        <f>Лист1!I31-Лист1!$B31</f>
-        <v>-2.7512000000000043</v>
+        <f>ABS(Курсы!I31-Курсы!$B31)</f>
+        <v>2.7512000000000043</v>
       </c>
       <c r="J31" s="9">
-        <f>Лист1!J31-Лист1!$B31</f>
-        <v>-4.527000000000001</v>
+        <f>ABS(Курсы!J31-Курсы!$B31)</f>
+        <v>4.527000000000001</v>
       </c>
       <c r="K31" s="9">
-        <f>Лист1!K31-Лист1!$B31</f>
-        <v>-4.1471000000000018</v>
+        <f>ABS(Курсы!K31-Курсы!$B31)</f>
+        <v>4.1471000000000018</v>
       </c>
       <c r="L31" s="9">
-        <f>Лист1!L31-Лист1!$B31</f>
-        <v>-3.7575000000000003</v>
+        <f>ABS(Курсы!L31-Курсы!$B31)</f>
+        <v>3.7575000000000003</v>
       </c>
       <c r="M31" s="9">
-        <f>Лист1!M31-Лист1!$B31</f>
-        <v>-3.7575000000000003</v>
+        <f>ABS(Курсы!M31-Курсы!$B31)</f>
+        <v>3.7575000000000003</v>
       </c>
       <c r="N31" s="9">
-        <f>Лист1!N31-Лист1!$B31</f>
-        <v>-3.7575000000000003</v>
+        <f>ABS(Курсы!N31-Курсы!$B31)</f>
+        <v>3.7575000000000003</v>
       </c>
       <c r="O31" s="9">
-        <f>Лист1!O31-Лист1!$B31</f>
-        <v>-3.7575000000000003</v>
+        <f>ABS(Курсы!O31-Курсы!$B31)</f>
+        <v>3.7575000000000003</v>
       </c>
       <c r="P31" s="9">
-        <f>Лист1!P31-Лист1!$B31</f>
-        <v>-3.5945999999999998</v>
+        <f>ABS(Курсы!P31-Курсы!$B31)</f>
+        <v>3.5945999999999998</v>
       </c>
       <c r="Q31" s="9">
-        <f>Лист1!Q31-Лист1!$B31</f>
-        <v>-4.9720000000000013</v>
+        <f>ABS(Курсы!Q31-Курсы!$B31)</f>
+        <v>4.9720000000000013</v>
       </c>
       <c r="R31" s="9">
-        <f>Лист1!R31-Лист1!$B31</f>
-        <v>-4.431200000000004</v>
+        <f>ABS(Курсы!R31-Курсы!$B31)</f>
+        <v>4.431200000000004</v>
       </c>
       <c r="U31" s="3">
         <f t="shared" si="2"/>
@@ -6923,68 +6919,68 @@
         <v>57.078699999999998</v>
       </c>
       <c r="C32" s="9">
-        <f>Лист1!C32-Лист1!$B32</f>
-        <v>-5.0786999999999978</v>
+        <f>ABS(Курсы!C32-Курсы!$B32)</f>
+        <v>5.0786999999999978</v>
       </c>
       <c r="D32" s="9">
-        <f>Лист1!D32-Лист1!$B32</f>
-        <v>-4.1070999999999955</v>
+        <f>ABS(Курсы!D32-Курсы!$B32)</f>
+        <v>4.1070999999999955</v>
       </c>
       <c r="E32" s="9">
-        <f>Лист1!E32-Лист1!$B32</f>
-        <v>-4.257399999999997</v>
+        <f>ABS(Курсы!E32-Курсы!$B32)</f>
+        <v>4.257399999999997</v>
       </c>
       <c r="F32" s="9">
-        <f>Лист1!F32-Лист1!$B32</f>
-        <v>-3.6373999999999995</v>
+        <f>ABS(Курсы!F32-Курсы!$B32)</f>
+        <v>3.6373999999999995</v>
       </c>
       <c r="G32" s="9">
-        <f>Лист1!G32-Лист1!$B32</f>
-        <v>-4.0197000000000003</v>
+        <f>ABS(Курсы!G32-Курсы!$B32)</f>
+        <v>4.0197000000000003</v>
       </c>
       <c r="H32" s="9">
-        <f>Лист1!H32-Лист1!$B32</f>
-        <v>-2.0878999999999976</v>
+        <f>ABS(Курсы!H32-Курсы!$B32)</f>
+        <v>2.0878999999999976</v>
       </c>
       <c r="I32" s="9">
-        <f>Лист1!I32-Лист1!$B32</f>
-        <v>-0.83239999999999981</v>
+        <f>ABS(Курсы!I32-Курсы!$B32)</f>
+        <v>0.83239999999999981</v>
       </c>
       <c r="J32" s="9">
-        <f>Лист1!J32-Лист1!$B32</f>
-        <v>-0.83239999999999981</v>
+        <f>ABS(Курсы!J32-Курсы!$B32)</f>
+        <v>0.83239999999999981</v>
       </c>
       <c r="K32" s="9">
-        <f>Лист1!K32-Лист1!$B32</f>
-        <v>-0.83239999999999981</v>
+        <f>ABS(Курсы!K32-Курсы!$B32)</f>
+        <v>0.83239999999999981</v>
       </c>
       <c r="L32" s="9">
-        <f>Лист1!L32-Лист1!$B32</f>
-        <v>-1.0351999999999961</v>
+        <f>ABS(Курсы!L32-Курсы!$B32)</f>
+        <v>1.0351999999999961</v>
       </c>
       <c r="M32" s="9">
-        <f>Лист1!M32-Лист1!$B32</f>
-        <v>-1.1687000000000012</v>
+        <f>ABS(Курсы!M32-Курсы!$B32)</f>
+        <v>1.1687000000000012</v>
       </c>
       <c r="N32" s="9">
-        <f>Лист1!N32-Лист1!$B32</f>
-        <v>-2.2567999999999984</v>
+        <f>ABS(Курсы!N32-Курсы!$B32)</f>
+        <v>2.2567999999999984</v>
       </c>
       <c r="O32" s="9">
-        <f>Лист1!O32-Лист1!$B32</f>
-        <v>-2.5501999999999967</v>
+        <f>ABS(Курсы!O32-Курсы!$B32)</f>
+        <v>2.5501999999999967</v>
       </c>
       <c r="P32" s="9">
-        <f>Лист1!P32-Лист1!$B32</f>
-        <v>-2.5501999999999967</v>
+        <f>ABS(Курсы!P32-Курсы!$B32)</f>
+        <v>2.5501999999999967</v>
       </c>
       <c r="Q32" s="9">
-        <f>Лист1!Q32-Лист1!$B32</f>
-        <v>-2.5501999999999967</v>
+        <f>ABS(Курсы!Q32-Курсы!$B32)</f>
+        <v>2.5501999999999967</v>
       </c>
       <c r="R32" s="9">
-        <f>Лист1!R32-Лист1!$B32</f>
-        <v>-2.5501999999999967</v>
+        <f>ABS(Курсы!R32-Курсы!$B32)</f>
+        <v>2.5501999999999967</v>
       </c>
       <c r="U32" s="3">
         <f t="shared" si="2"/>
@@ -7063,68 +7059,68 @@
         <v>65.204099999999997</v>
       </c>
       <c r="C33" s="9">
-        <f>Лист1!C33-Лист1!$B33</f>
-        <v>-8.7040999999999968</v>
+        <f>ABS(Курсы!C33-Курсы!$B33)</f>
+        <v>8.7040999999999968</v>
       </c>
       <c r="D33" s="9">
-        <f>Лист1!D33-Лист1!$B33</f>
-        <v>-9.3628</v>
+        <f>ABS(Курсы!D33-Курсы!$B33)</f>
+        <v>9.3628</v>
       </c>
       <c r="E33" s="9">
-        <f>Лист1!E33-Лист1!$B33</f>
-        <v>-9.7284999999999968</v>
+        <f>ABS(Курсы!E33-Курсы!$B33)</f>
+        <v>9.7284999999999968</v>
       </c>
       <c r="F33" s="9">
-        <f>Лист1!F33-Лист1!$B33</f>
-        <v>-9.5485999999999933</v>
+        <f>ABS(Курсы!F33-Курсы!$B33)</f>
+        <v>9.5485999999999933</v>
       </c>
       <c r="G33" s="9">
-        <f>Лист1!G33-Лист1!$B33</f>
-        <v>-9.5991999999999962</v>
+        <f>ABS(Курсы!G33-Курсы!$B33)</f>
+        <v>9.5991999999999962</v>
       </c>
       <c r="H33" s="9">
-        <f>Лист1!H33-Лист1!$B33</f>
-        <v>-9.5991999999999962</v>
+        <f>ABS(Курсы!H33-Курсы!$B33)</f>
+        <v>9.5991999999999962</v>
       </c>
       <c r="I33" s="9">
-        <f>Лист1!I33-Лист1!$B33</f>
-        <v>-9.5991999999999962</v>
+        <f>ABS(Курсы!I33-Курсы!$B33)</f>
+        <v>9.5991999999999962</v>
       </c>
       <c r="J33" s="9">
-        <f>Лист1!J33-Лист1!$B33</f>
-        <v>-8.7928999999999959</v>
+        <f>ABS(Курсы!J33-Курсы!$B33)</f>
+        <v>8.7928999999999959</v>
       </c>
       <c r="K33" s="9">
-        <f>Лист1!K33-Лист1!$B33</f>
-        <v>-7.9848999999999961</v>
+        <f>ABS(Курсы!K33-Курсы!$B33)</f>
+        <v>7.9848999999999961</v>
       </c>
       <c r="L33" s="9">
-        <f>Лист1!L33-Лист1!$B33</f>
-        <v>-7.986699999999999</v>
+        <f>ABS(Курсы!L33-Курсы!$B33)</f>
+        <v>7.986699999999999</v>
       </c>
       <c r="M33" s="9">
-        <f>Лист1!M33-Лист1!$B33</f>
-        <v>-8.2237999999999971</v>
+        <f>ABS(Курсы!M33-Курсы!$B33)</f>
+        <v>8.2237999999999971</v>
       </c>
       <c r="N33" s="9">
-        <f>Лист1!N33-Лист1!$B33</f>
-        <v>-8.5355999999999952</v>
+        <f>ABS(Курсы!N33-Курсы!$B33)</f>
+        <v>8.5355999999999952</v>
       </c>
       <c r="O33" s="9">
-        <f>Лист1!O33-Лист1!$B33</f>
-        <v>-8.5355999999999952</v>
+        <f>ABS(Курсы!O33-Курсы!$B33)</f>
+        <v>8.5355999999999952</v>
       </c>
       <c r="P33" s="9">
-        <f>Лист1!P33-Лист1!$B33</f>
-        <v>-8.5355999999999952</v>
+        <f>ABS(Курсы!P33-Курсы!$B33)</f>
+        <v>8.5355999999999952</v>
       </c>
       <c r="Q33" s="9">
-        <f>Лист1!Q33-Лист1!$B33</f>
-        <v>-8.5961999999999961</v>
+        <f>ABS(Курсы!Q33-Курсы!$B33)</f>
+        <v>8.5961999999999961</v>
       </c>
       <c r="R33" s="9">
-        <f>Лист1!R33-Лист1!$B33</f>
-        <v>-8.2266999999999939</v>
+        <f>ABS(Курсы!R33-Курсы!$B33)</f>
+        <v>8.2266999999999939</v>
       </c>
       <c r="U33" s="3">
         <f t="shared" si="2"/>
@@ -7203,68 +7199,68 @@
         <v>66.774900000000002</v>
       </c>
       <c r="C34" s="9">
-        <f>Лист1!C34-Лист1!$B34</f>
-        <v>-5.7749000000000024</v>
+        <f>ABS(Курсы!C34-Курсы!$B34)</f>
+        <v>5.7749000000000024</v>
       </c>
       <c r="D34" s="9">
-        <f>Лист1!D34-Лист1!$B34</f>
-        <v>-6.4291000000000054</v>
+        <f>ABS(Курсы!D34-Курсы!$B34)</f>
+        <v>6.4291000000000054</v>
       </c>
       <c r="E34" s="9">
-        <f>Лист1!E34-Лист1!$B34</f>
-        <v>-6.4291000000000054</v>
+        <f>ABS(Курсы!E34-Курсы!$B34)</f>
+        <v>6.4291000000000054</v>
       </c>
       <c r="F34" s="9">
-        <f>Лист1!F34-Лист1!$B34</f>
-        <v>-6.4291000000000054</v>
+        <f>ABS(Курсы!F34-Курсы!$B34)</f>
+        <v>6.4291000000000054</v>
       </c>
       <c r="G34" s="9">
-        <f>Лист1!G34-Лист1!$B34</f>
-        <v>-4.3072000000000017</v>
+        <f>ABS(Курсы!G34-Курсы!$B34)</f>
+        <v>4.3072000000000017</v>
       </c>
       <c r="H34" s="9">
-        <f>Лист1!H34-Лист1!$B34</f>
-        <v>-3.8567000000000036</v>
+        <f>ABS(Курсы!H34-Курсы!$B34)</f>
+        <v>3.8567000000000036</v>
       </c>
       <c r="I34" s="9">
-        <f>Лист1!I34-Лист1!$B34</f>
-        <v>-4.0564999999999998</v>
+        <f>ABS(Курсы!I34-Курсы!$B34)</f>
+        <v>4.0564999999999998</v>
       </c>
       <c r="J34" s="9">
-        <f>Лист1!J34-Лист1!$B34</f>
-        <v>-2.910499999999999</v>
+        <f>ABS(Курсы!J34-Курсы!$B34)</f>
+        <v>2.910499999999999</v>
       </c>
       <c r="K34" s="9">
-        <f>Лист1!K34-Лист1!$B34</f>
-        <v>-2.9350000000000023</v>
+        <f>ABS(Курсы!K34-Курсы!$B34)</f>
+        <v>2.9350000000000023</v>
       </c>
       <c r="L34" s="9">
-        <f>Лист1!L34-Лист1!$B34</f>
-        <v>-2.9350000000000023</v>
+        <f>ABS(Курсы!L34-Курсы!$B34)</f>
+        <v>2.9350000000000023</v>
       </c>
       <c r="M34" s="9">
-        <f>Лист1!M34-Лист1!$B34</f>
-        <v>-2.9350000000000023</v>
+        <f>ABS(Курсы!M34-Курсы!$B34)</f>
+        <v>2.9350000000000023</v>
       </c>
       <c r="N34" s="9">
-        <f>Лист1!N34-Лист1!$B34</f>
-        <v>-2.2772000000000077</v>
+        <f>ABS(Курсы!N34-Курсы!$B34)</f>
+        <v>2.2772000000000077</v>
       </c>
       <c r="O34" s="9">
-        <f>Лист1!O34-Лист1!$B34</f>
-        <v>-3.565100000000001</v>
+        <f>ABS(Курсы!O34-Курсы!$B34)</f>
+        <v>3.565100000000001</v>
       </c>
       <c r="P34" s="9">
-        <f>Лист1!P34-Лист1!$B34</f>
-        <v>-1.7579999999999956</v>
+        <f>ABS(Курсы!P34-Курсы!$B34)</f>
+        <v>1.7579999999999956</v>
       </c>
       <c r="Q34" s="9">
-        <f>Лист1!Q34-Лист1!$B34</f>
-        <v>-2.7760999999999996</v>
+        <f>ABS(Курсы!Q34-Курсы!$B34)</f>
+        <v>2.7760999999999996</v>
       </c>
       <c r="R34" s="9">
-        <f>Лист1!R34-Лист1!$B34</f>
-        <v>-1.8385999999999996</v>
+        <f>ABS(Курсы!R34-Курсы!$B34)</f>
+        <v>1.8385999999999996</v>
       </c>
       <c r="U34" s="3">
         <f t="shared" si="2"/>
@@ -7343,67 +7339,67 @@
         <v>63.0871</v>
       </c>
       <c r="C35" s="9">
-        <f>Лист1!C35-Лист1!$B35</f>
+        <f>ABS(Курсы!C35-Курсы!$B35)</f>
         <v>3.9129000000000005</v>
       </c>
       <c r="D35" s="9">
-        <f>Лист1!D35-Лист1!$B35</f>
+        <f>ABS(Курсы!D35-Курсы!$B35)</f>
         <v>3.6280999999999963</v>
       </c>
       <c r="E35" s="9">
-        <f>Лист1!E35-Лист1!$B35</f>
+        <f>ABS(Курсы!E35-Курсы!$B35)</f>
         <v>2.2624000000000066</v>
       </c>
       <c r="F35" s="9">
-        <f>Лист1!F35-Лист1!$B35</f>
+        <f>ABS(Курсы!F35-Курсы!$B35)</f>
         <v>3.5885000000000034</v>
       </c>
       <c r="G35" s="9">
-        <f>Лист1!G35-Лист1!$B35</f>
+        <f>ABS(Курсы!G35-Курсы!$B35)</f>
         <v>3.923099999999998</v>
       </c>
       <c r="H35" s="9">
-        <f>Лист1!H35-Лист1!$B35</f>
+        <f>ABS(Курсы!H35-Курсы!$B35)</f>
         <v>4.5979000000000028</v>
       </c>
       <c r="I35" s="9">
-        <f>Лист1!I35-Лист1!$B35</f>
+        <f>ABS(Курсы!I35-Курсы!$B35)</f>
         <v>4.5979000000000028</v>
       </c>
       <c r="J35" s="9">
-        <f>Лист1!J35-Лист1!$B35</f>
+        <f>ABS(Курсы!J35-Курсы!$B35)</f>
         <v>4.5979000000000028</v>
       </c>
       <c r="K35" s="9">
-        <f>Лист1!K35-Лист1!$B35</f>
+        <f>ABS(Курсы!K35-Курсы!$B35)</f>
         <v>5.3993000000000038</v>
       </c>
       <c r="L35" s="9">
-        <f>Лист1!L35-Лист1!$B35</f>
+        <f>ABS(Курсы!L35-Курсы!$B35)</f>
         <v>5.7060999999999993</v>
       </c>
       <c r="M35" s="9">
-        <f>Лист1!M35-Лист1!$B35</f>
+        <f>ABS(Курсы!M35-Курсы!$B35)</f>
         <v>4.5347999999999971</v>
       </c>
       <c r="N35" s="9">
-        <f>Лист1!N35-Лист1!$B35</f>
+        <f>ABS(Курсы!N35-Курсы!$B35)</f>
         <v>5.4089999999999989</v>
       </c>
       <c r="O35" s="9">
-        <f>Лист1!O35-Лист1!$B35</f>
+        <f>ABS(Курсы!O35-Курсы!$B35)</f>
         <v>4.9221999999999966</v>
       </c>
       <c r="P35" s="9">
-        <f>Лист1!P35-Лист1!$B35</f>
+        <f>ABS(Курсы!P35-Курсы!$B35)</f>
         <v>4.9221999999999966</v>
       </c>
       <c r="Q35" s="9">
-        <f>Лист1!Q35-Лист1!$B35</f>
+        <f>ABS(Курсы!Q35-Курсы!$B35)</f>
         <v>4.9221999999999966</v>
       </c>
       <c r="R35" s="9">
-        <f>Лист1!R35-Лист1!$B35</f>
+        <f>ABS(Курсы!R35-Курсы!$B35)</f>
         <v>4.8699999999999974</v>
       </c>
       <c r="U35" s="3">
@@ -7483,68 +7479,68 @@
         <v>65.033699999999996</v>
       </c>
       <c r="C36" s="9">
-        <f>Лист1!C36-Лист1!$B36</f>
+        <f>ABS(Курсы!C36-Курсы!$B36)</f>
         <v>1.9663000000000039</v>
       </c>
       <c r="D36" s="9">
-        <f>Лист1!D36-Лист1!$B36</f>
+        <f>ABS(Курсы!D36-Курсы!$B36)</f>
         <v>0.70270000000000721</v>
       </c>
       <c r="E36" s="9">
-        <f>Лист1!E36-Лист1!$B36</f>
-        <v>-9.9999999989108801E-5</v>
+        <f>ABS(Курсы!E36-Курсы!$B36)</f>
+        <v>9.9999999989108801E-5</v>
       </c>
       <c r="F36" s="9">
-        <f>Лист1!F36-Лист1!$B36</f>
+        <f>ABS(Курсы!F36-Курсы!$B36)</f>
         <v>0.9077000000000055</v>
       </c>
       <c r="G36" s="9">
-        <f>Лист1!G36-Лист1!$B36</f>
+        <f>ABS(Курсы!G36-Курсы!$B36)</f>
         <v>0.9077000000000055</v>
       </c>
       <c r="H36" s="9">
-        <f>Лист1!H36-Лист1!$B36</f>
+        <f>ABS(Курсы!H36-Курсы!$B36)</f>
         <v>0.9077000000000055</v>
       </c>
       <c r="I36" s="9">
-        <f>Лист1!I36-Лист1!$B36</f>
+        <f>ABS(Курсы!I36-Курсы!$B36)</f>
         <v>0.59109999999999729</v>
       </c>
       <c r="J36" s="9">
-        <f>Лист1!J36-Лист1!$B36</f>
+        <f>ABS(Курсы!J36-Курсы!$B36)</f>
         <v>6.25E-2</v>
       </c>
       <c r="K36" s="9">
-        <f>Лист1!K36-Лист1!$B36</f>
-        <v>-2.3275999999999968</v>
+        <f>ABS(Курсы!K36-Курсы!$B36)</f>
+        <v>2.3275999999999968</v>
       </c>
       <c r="L36" s="9">
-        <f>Лист1!L36-Лист1!$B36</f>
-        <v>-2.7394999999999996</v>
+        <f>ABS(Курсы!L36-Курсы!$B36)</f>
+        <v>2.7394999999999996</v>
       </c>
       <c r="M36" s="9">
-        <f>Лист1!M36-Лист1!$B36</f>
-        <v>-3.7369999999999948</v>
+        <f>ABS(Курсы!M36-Курсы!$B36)</f>
+        <v>3.7369999999999948</v>
       </c>
       <c r="N36" s="9">
-        <f>Лист1!N36-Лист1!$B36</f>
-        <v>-3.7369999999999948</v>
+        <f>ABS(Курсы!N36-Курсы!$B36)</f>
+        <v>3.7369999999999948</v>
       </c>
       <c r="O36" s="9">
-        <f>Лист1!O36-Лист1!$B36</f>
-        <v>-3.7369999999999948</v>
+        <f>ABS(Курсы!O36-Курсы!$B36)</f>
+        <v>3.7369999999999948</v>
       </c>
       <c r="P36" s="9">
-        <f>Лист1!P36-Лист1!$B36</f>
-        <v>-3.880199999999995</v>
+        <f>ABS(Курсы!P36-Курсы!$B36)</f>
+        <v>3.880199999999995</v>
       </c>
       <c r="Q36" s="9">
-        <f>Лист1!Q36-Лист1!$B36</f>
-        <v>-2.8099999999999952</v>
+        <f>ABS(Курсы!Q36-Курсы!$B36)</f>
+        <v>2.8099999999999952</v>
       </c>
       <c r="R36" s="9">
-        <f>Лист1!R36-Лист1!$B36</f>
-        <v>-1.9088999999999956</v>
+        <f>ABS(Курсы!R36-Курсы!$B36)</f>
+        <v>1.9088999999999956</v>
       </c>
       <c r="U36" s="3">
         <f t="shared" si="2"/>
@@ -7618,67 +7614,67 @@
     <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C37" s="3">
         <f>AVERAGE(C2:C36)</f>
-        <v>-1.2784142857142857</v>
+        <v>3.3988771428571427</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" ref="D37:R37" si="18">AVERAGE(D2:D36)</f>
-        <v>-1.3901628571428566</v>
+        <v>3.2962371428571418</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" si="18"/>
-        <v>-1.348354285714285</v>
+        <v>3.1398571428571427</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="18"/>
-        <v>-1.2668142857142852</v>
+        <v>3.2336314285714285</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="18"/>
-        <v>-1.1177799999999998</v>
+        <v>3.0517342857142857</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="18"/>
-        <v>-1.1535057142857144</v>
+        <v>2.9981685714285717</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="18"/>
-        <v>-0.96687714285714343</v>
+        <v>2.9238142857142857</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="18"/>
-        <v>-1.085805714285714</v>
+        <v>2.734914285714285</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="18"/>
-        <v>-1.0400714285714285</v>
+        <v>2.6665171428571424</v>
       </c>
       <c r="L37" s="3">
         <f t="shared" si="18"/>
-        <v>-1.0578371428571431</v>
+        <v>2.6078885714285711</v>
       </c>
       <c r="M37" s="3">
         <f t="shared" si="18"/>
-        <v>-1.1811485714285717</v>
+        <v>2.5321028571428577</v>
       </c>
       <c r="N37" s="3">
         <f t="shared" si="18"/>
-        <v>-1.2795914285714289</v>
+        <v>2.576654285714286</v>
       </c>
       <c r="O37" s="3">
         <f t="shared" si="18"/>
-        <v>-1.2632942857142866</v>
+        <v>2.6757114285714279</v>
       </c>
       <c r="P37" s="3">
         <f t="shared" si="18"/>
-        <v>-0.98695428571428589</v>
+        <v>2.302377142857142</v>
       </c>
       <c r="Q37" s="3">
         <f t="shared" si="18"/>
-        <v>-0.94591428571428593</v>
+        <v>2.2949200000000003</v>
       </c>
       <c r="R37" s="3">
         <f t="shared" si="18"/>
-        <v>-0.78895428571428605</v>
+        <v>2.2146857142857139</v>
       </c>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
